--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>时间</t>
   </si>
@@ -27,6 +27,9 @@
     <t>任务名</t>
   </si>
   <si>
+    <t>时间安排</t>
+  </si>
+  <si>
     <t>进度</t>
   </si>
   <si>
@@ -39,18 +42,33 @@
     <t>react</t>
   </si>
   <si>
+    <t>13日-14日</t>
+  </si>
+  <si>
+    <t>react-router</t>
+  </si>
+  <si>
+    <t>redux</t>
+  </si>
+  <si>
     <t>TS</t>
   </si>
   <si>
     <t>nodejs</t>
   </si>
   <si>
+    <t>13日-20日</t>
+  </si>
+  <si>
     <t>umijs</t>
   </si>
   <si>
     <t>webpack</t>
   </si>
   <si>
+    <t>13日-15日</t>
+  </si>
+  <si>
     <t>vue二开</t>
   </si>
   <si>
@@ -60,6 +78,9 @@
     <t>network</t>
   </si>
   <si>
+    <t>13日</t>
+  </si>
+  <si>
     <t>broswer</t>
   </si>
   <si>
@@ -70,6 +91,9 @@
   </si>
   <si>
     <t>12月</t>
+  </si>
+  <si>
+    <t>nginx</t>
   </si>
 </sst>
 </file>
@@ -82,7 +106,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +117,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -572,48 +589,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,97 +643,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -724,19 +741,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1102,23 +1119,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15.8888888888889" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.5555555555556" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40.3981481481481" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.3333333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.3981481481481" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="53" customHeight="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,125 +1146,177 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="30.4" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+    <row r="2" ht="30.4" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7">
         <v>0.3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
-    <row r="3" ht="30.4" customHeight="1" spans="2:4">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7">
+    <row r="3" ht="30.4" customHeight="1" spans="2:5">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" ht="30.4" customHeight="1" spans="2:5">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" ht="30.4" customHeight="1" spans="2:5">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" ht="31" customHeight="1" spans="2:4">
-      <c r="B4" s="5"/>
-      <c r="C4" s="2" t="s">
+    <row r="6" ht="31" customHeight="1" spans="2:5">
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" ht="30.4" customHeight="1" spans="2:5">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8">
-        <v>0.4</v>
+      <c r="E7" s="7">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="5" ht="30.4" customHeight="1" spans="2:4">
-      <c r="B5" s="5"/>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7">
+    <row r="8" ht="30.4" customHeight="1" spans="2:5">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" ht="30.4" customHeight="1" spans="2:5">
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="30.4" customHeight="1" spans="2:5">
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" ht="30.4" customHeight="1" spans="2:5">
+      <c r="B11" s="9"/>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" ht="30.4" customHeight="1" spans="2:5">
+      <c r="B12" s="9"/>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" ht="30.4" customHeight="1" spans="2:4">
-      <c r="B6" s="5"/>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7">
+    <row r="13" ht="30.4" customHeight="1" spans="2:5">
+      <c r="B13" s="11"/>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" ht="30.4" customHeight="1" spans="2:4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
+    <row r="14" ht="30.4" customHeight="1"/>
+    <row r="15" ht="30.4" customHeight="1" spans="2:5">
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="8" ht="30.4" customHeight="1" spans="2:4">
-      <c r="B8" s="5"/>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.05</v>
+    <row r="16" ht="30.4" customHeight="1" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" ht="30.4" customHeight="1" spans="2:4">
-      <c r="B9" s="9"/>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" ht="30.4" customHeight="1" spans="2:4">
-      <c r="B10" s="9"/>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" ht="30.4" customHeight="1" spans="2:4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" ht="30.4" customHeight="1"/>
-    <row r="13" ht="30.4" customHeight="1" spans="2:4">
-      <c r="B13" s="5"/>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" ht="30.4" customHeight="1" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" ht="30.4" customHeight="1"/>
-    <row r="16" ht="30.4" customHeight="1"/>
     <row r="17" ht="30.4" customHeight="1"/>
     <row r="18" ht="30.4" customHeight="1"/>
     <row r="19" ht="30.4" customHeight="1"/>
@@ -1278,13 +1348,39 @@
     <row r="45" ht="30.4" customHeight="1"/>
     <row r="46" ht="30.4" customHeight="1"/>
     <row r="47" ht="30.4" customHeight="1"/>
+    <row r="48" ht="30.4" customHeight="1"/>
+    <row r="49" ht="30.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A16:A27"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="dataBar" priority="10">
+  <conditionalFormatting sqref="E5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{aa5c4b22-ba27-448b-a20c-1833b5147fb6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{85580896-f668-4122-8e3c-ebabe013d884}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1292,7 +1388,109 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6fa6a07a-b35f-40d3-92e1-f6c2ffb93514}</x14:id>
+          <x14:id>{157c6453-48f1-4138-80ba-d0a5338720d0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3c71cc61-ef0e-4d40-bc95-2fcea140e22e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{67a37ba5-237e-4e74-8110-8865c7e96ce9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4cf01490-34bd-4538-a18f-8df794a42316}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cec8074f-339a-498c-921e-3774746da20a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2d5820f3-893b-4b1c-83ba-01a1f5e7c654}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c7b2246e-055c-43fc-b391-a478b0e49085}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0a709f77-ce65-4b9b-bb2d-241aa26a1c73}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c2e764f4-16b2-476b-b9c7-2e3d52bf6442}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1304,23 +1502,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1d94253c-462a-42e0-a4ac-5add5a0e9014}</x14:id>
+          <x14:id>{926901bd-39b2-4f2d-980e-e82318601440}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color rgb="FF63C384"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1d1ea9ad-3b32-4b95-948e-c7711a70dc25}</x14:id>
+          <x14:id>{cbad3ca2-7207-4e96-bb50-c6cd72253641}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="7">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G4">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1328,21 +1528,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f63998df-ed4c-415f-b890-1e8c61be1d8e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bde876ab-0645-48e2-8d0d-509c805d5b74}</x14:id>
+          <x14:id>{65133212-99af-4d7b-b273-341b9d4b6ed8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1354,49 +1540,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7c3d2731-b90c-4349-b1d3-d418bf1fec63}</x14:id>
+          <x14:id>{21e4ce49-9d4f-4215-85ba-a211b466f723}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f7c6856-5dd2-481d-9396-e5dcb3f85cef}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{027922e0-fb33-4969-9ef8-1be0f2e88c22}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{094c4f70-f866-4b6f-8289-d5e6b91fcfc1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1404,88 +1552,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f98a2b1-5df5-4f9e-91d6-b96aeba2a176}</x14:id>
+          <x14:id>{73a2d001-a405-4cbd-aacc-9857054c713a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc6ef304-159a-4b6a-9982-a82005ad2ae5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{20dd11fc-c39e-4c5e-9c5b-93d656875e60}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{72c958a5-d666-48ec-8a17-aeaa6ae9a741}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8d93b5cb-e618-4a13-9d0e-bd505e849b27}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2d426e1f-8b23-481f-95b5-da66300d9b00}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e68e8c47-1cb8-417f-b2a4-3afb55dfad65}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F9">
+  <conditionalFormatting sqref="G8:G11">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -1494,12 +1566,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{32ba7d2e-b256-428c-9f73-c6fbfd7030c2}</x14:id>
+          <x14:id>{b7ace030-68a4-49af-bc02-c9cb37663d45}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D14:D1048576 D5:D12">
+  <conditionalFormatting sqref="E1 E7:E14 E16:E1048576">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1508,7 +1580,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3d651c5e-c6a6-4632-9258-2cea2dd61dbf}</x14:id>
+          <x14:id>{18f9f1bf-38df-4cac-84f4-47d86c081d70}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1520,7 +1592,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83be7a79-345d-4f9f-bf88-c4d3381ef6f6}</x14:id>
+          <x14:id>{16abda1a-82a6-4a78-8a3a-3a2968c2d167}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1532,7 +1604,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f82c73ef-21f5-408d-b365-ba302b53da94}</x14:id>
+          <x14:id>{7be0211f-c5d3-4321-9df4-79216fb2b3ff}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1544,7 +1616,33 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6fa6a07a-b35f-40d3-92e1-f6c2ffb93514}">
+          <x14:cfRule type="dataBar" id="{aa5c4b22-ba27-448b-a20c-1833b5147fb6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{85580896-f668-4122-8e3c-ebabe013d884}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{157c6453-48f1-4138-80ba-d0a5338720d0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1552,7 +1650,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1d94253c-462a-42e0-a4ac-5add5a0e9014}">
+          <xm:sqref>E5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3c71cc61-ef0e-4d40-bc95-2fcea140e22e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1564,7 +1665,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1d1ea9ad-3b32-4b95-948e-c7711a70dc25}">
+          <x14:cfRule type="dataBar" id="{67a37ba5-237e-4e74-8110-8865c7e96ce9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1578,22 +1679,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f63998df-ed4c-415f-b890-1e8c61be1d8e}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bde876ab-0645-48e2-8d0d-509c805d5b74}">
+          <x14:cfRule type="dataBar" id="{4cf01490-34bd-4538-a18f-8df794a42316}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1601,7 +1687,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7c3d2731-b90c-4349-b1d3-d418bf1fec63}">
+          <xm:sqref>E6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{cec8074f-339a-498c-921e-3774746da20a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2d5820f3-893b-4b1c-83ba-01a1f5e7c654}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1615,48 +1716,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5f7c6856-5dd2-481d-9396-e5dcb3f85cef}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{027922e0-fb33-4969-9ef8-1be0f2e88c22}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{094c4f70-f866-4b6f-8289-d5e6b91fcfc1}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1f98a2b1-5df5-4f9e-91d6-b96aeba2a176}">
+          <x14:cfRule type="dataBar" id="{c7b2246e-055c-43fc-b391-a478b0e49085}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1664,10 +1724,48 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D3</xm:sqref>
+          <xm:sqref>E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc6ef304-159a-4b6a-9982-a82005ad2ae5}">
+          <x14:cfRule type="dataBar" id="{0a709f77-ce65-4b9b-bb2d-241aa26a1c73}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{c2e764f4-16b2-476b-b9c7-2e3d52bf6442}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{926901bd-39b2-4f2d-980e-e82318601440}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{cbad3ca2-7207-4e96-bb50-c6cd72253641}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1675,7 +1773,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{20dd11fc-c39e-4c5e-9c5b-93d656875e60}">
+          <xm:sqref>E2:E4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{65133212-99af-4d7b-b273-341b9d4b6ed8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{21e4ce49-9d4f-4215-85ba-a211b466f723}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1689,48 +1802,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{72c958a5-d666-48ec-8a17-aeaa6ae9a741}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8d93b5cb-e618-4a13-9d0e-bd505e849b27}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2d426e1f-8b23-481f-95b5-da66300d9b00}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e68e8c47-1cb8-417f-b2a4-3afb55dfad65}">
+          <x14:cfRule type="dataBar" id="{73a2d001-a405-4cbd-aacc-9857054c713a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1738,10 +1810,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D13</xm:sqref>
+          <xm:sqref>G2:G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{32ba7d2e-b256-428c-9f73-c6fbfd7030c2}">
+          <x14:cfRule type="dataBar" id="{b7ace030-68a4-49af-bc02-c9cb37663d45}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1749,10 +1821,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:F9</xm:sqref>
+          <xm:sqref>G8:G11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3d651c5e-c6a6-4632-9258-2cea2dd61dbf}">
+          <x14:cfRule type="dataBar" id="{18f9f1bf-38df-4cac-84f4-47d86c081d70}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1764,7 +1836,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{83be7a79-345d-4f9f-bf88-c4d3381ef6f6}">
+          <x14:cfRule type="dataBar" id="{16abda1a-82a6-4a78-8a3a-3a2968c2d167}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1778,7 +1850,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f82c73ef-21f5-408d-b365-ba302b53da94}">
+          <x14:cfRule type="dataBar" id="{7be0211f-c5d3-4321-9df4-79216fb2b3ff}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1786,7 +1858,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D1 D14:D1048576 D5:D12</xm:sqref>
+          <xm:sqref>E1 E7:E14 E16:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10740"/>
+    <workbookView windowWidth="22368" windowHeight="10740" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="program" sheetId="1" r:id="rId1"/>
+    <sheet name="english" sheetId="2" r:id="rId2"/>
+    <sheet name="time" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>时间</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>nginx</t>
+  </si>
+  <si>
+    <t>音标</t>
+  </si>
+  <si>
+    <t>26日</t>
   </si>
 </sst>
 </file>
@@ -734,16 +740,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -755,9 +773,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1121,8 +1136,8 @@
   <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1130,8 +1145,8 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.3333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.3333333333333" style="7" customWidth="1"/>
     <col min="6" max="6" width="40.3981481481481" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1146,10 +1161,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1160,152 +1175,152 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G2" s="8"/>
+      <c r="E2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>0.4</v>
       </c>
     </row>
     <row r="6" ht="31" customHeight="1" spans="2:5">
-      <c r="B6" s="4"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="11">
         <v>0.4</v>
       </c>
     </row>
     <row r="7" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B7" s="4"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0.2</v>
       </c>
     </row>
     <row r="8" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B8" s="4"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B9" s="4"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B10" s="4"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>0.05</v>
       </c>
     </row>
     <row r="11" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B11" s="9"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B12" s="9"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="13">
         <v>0.2</v>
       </c>
     </row>
     <row r="13" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B13" s="11"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7">
+      <c r="D13" s="10"/>
+      <c r="E13" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" ht="30.4" customHeight="1"/>
     <row r="15" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B15" s="4"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7">
+      <c r="D15" s="10"/>
+      <c r="E15" s="6">
         <v>0.01</v>
       </c>
     </row>
@@ -1364,7 +1379,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aa5c4b22-ba27-448b-a20c-1833b5147fb6}</x14:id>
+          <x14:id>{8e9d870f-dbbf-4abb-9875-e98740cbb3f1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1376,7 +1391,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85580896-f668-4122-8e3c-ebabe013d884}</x14:id>
+          <x14:id>{e4c6382a-1c44-47ff-bdc6-ddce1816f772}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1388,7 +1403,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{157c6453-48f1-4138-80ba-d0a5338720d0}</x14:id>
+          <x14:id>{73b45fd1-d051-48a2-8528-db09b116d7d8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1402,7 +1417,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c71cc61-ef0e-4d40-bc95-2fcea140e22e}</x14:id>
+          <x14:id>{4ade348b-67cc-494a-9b93-93c2d2f9f0e1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1414,7 +1429,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67a37ba5-237e-4e74-8110-8865c7e96ce9}</x14:id>
+          <x14:id>{dcf91371-2dd2-4383-b861-1b27302098f0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1426,7 +1441,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4cf01490-34bd-4538-a18f-8df794a42316}</x14:id>
+          <x14:id>{2fc1db6f-dff9-4205-87f4-be3ea744714c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1440,7 +1455,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cec8074f-339a-498c-921e-3774746da20a}</x14:id>
+          <x14:id>{a0239810-6f6e-4a41-954d-f2b979506129}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1452,7 +1467,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2d5820f3-893b-4b1c-83ba-01a1f5e7c654}</x14:id>
+          <x14:id>{10af228a-a290-4fcf-bbdc-f99af16c770e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1464,7 +1479,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c7b2246e-055c-43fc-b391-a478b0e49085}</x14:id>
+          <x14:id>{1e6a60d8-729a-4a34-88bc-f91eda0cc0c9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1478,7 +1493,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0a709f77-ce65-4b9b-bb2d-241aa26a1c73}</x14:id>
+          <x14:id>{8e8c9316-dfde-4714-84de-2e906081b36a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1490,7 +1505,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c2e764f4-16b2-476b-b9c7-2e3d52bf6442}</x14:id>
+          <x14:id>{bffeaf4e-5bb9-43c6-a317-b1ded86b8b5d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1502,7 +1517,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{926901bd-39b2-4f2d-980e-e82318601440}</x14:id>
+          <x14:id>{9c4fc327-8393-49d3-aea6-250132e19ed5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1514,7 +1529,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cbad3ca2-7207-4e96-bb50-c6cd72253641}</x14:id>
+          <x14:id>{3ba2f716-f9af-41a2-93fc-ef72af9e43bf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1528,7 +1543,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{65133212-99af-4d7b-b273-341b9d4b6ed8}</x14:id>
+          <x14:id>{eb05b9b9-41f4-48fa-8f1c-d4e6babb170c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1540,7 +1555,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21e4ce49-9d4f-4215-85ba-a211b466f723}</x14:id>
+          <x14:id>{63c8a814-24ec-4b48-a9dd-1998ac036434}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1552,7 +1567,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{73a2d001-a405-4cbd-aacc-9857054c713a}</x14:id>
+          <x14:id>{f09b3a94-b7bb-4298-8d80-9bc7e54946de}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1566,7 +1581,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b7ace030-68a4-49af-bc02-c9cb37663d45}</x14:id>
+          <x14:id>{f300c71b-c871-4379-bb02-e0b69237feb6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1580,7 +1595,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18f9f1bf-38df-4cac-84f4-47d86c081d70}</x14:id>
+          <x14:id>{da41232c-7655-4908-91b5-87cd7619b74f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1592,7 +1607,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{16abda1a-82a6-4a78-8a3a-3a2968c2d167}</x14:id>
+          <x14:id>{d7d3e9a6-54b1-4ef3-b6a1-8eee668b5ef1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1604,7 +1619,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7be0211f-c5d3-4321-9df4-79216fb2b3ff}</x14:id>
+          <x14:id>{6a7d641d-37fc-43d9-826c-26b42ae26797}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1616,7 +1631,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{aa5c4b22-ba27-448b-a20c-1833b5147fb6}">
+          <x14:cfRule type="dataBar" id="{8e9d870f-dbbf-4abb-9875-e98740cbb3f1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1628,7 +1643,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{85580896-f668-4122-8e3c-ebabe013d884}">
+          <x14:cfRule type="dataBar" id="{e4c6382a-1c44-47ff-bdc6-ddce1816f772}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1642,7 +1657,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{157c6453-48f1-4138-80ba-d0a5338720d0}">
+          <x14:cfRule type="dataBar" id="{73b45fd1-d051-48a2-8528-db09b116d7d8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1653,7 +1668,7 @@
           <xm:sqref>E5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3c71cc61-ef0e-4d40-bc95-2fcea140e22e}">
+          <x14:cfRule type="dataBar" id="{4ade348b-67cc-494a-9b93-93c2d2f9f0e1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1665,7 +1680,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{67a37ba5-237e-4e74-8110-8865c7e96ce9}">
+          <x14:cfRule type="dataBar" id="{dcf91371-2dd2-4383-b861-1b27302098f0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1679,7 +1694,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4cf01490-34bd-4538-a18f-8df794a42316}">
+          <x14:cfRule type="dataBar" id="{2fc1db6f-dff9-4205-87f4-be3ea744714c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1690,7 +1705,7 @@
           <xm:sqref>E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cec8074f-339a-498c-921e-3774746da20a}">
+          <x14:cfRule type="dataBar" id="{a0239810-6f6e-4a41-954d-f2b979506129}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1702,7 +1717,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2d5820f3-893b-4b1c-83ba-01a1f5e7c654}">
+          <x14:cfRule type="dataBar" id="{10af228a-a290-4fcf-bbdc-f99af16c770e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1716,7 +1731,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c7b2246e-055c-43fc-b391-a478b0e49085}">
+          <x14:cfRule type="dataBar" id="{1e6a60d8-729a-4a34-88bc-f91eda0cc0c9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1727,7 +1742,7 @@
           <xm:sqref>E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0a709f77-ce65-4b9b-bb2d-241aa26a1c73}">
+          <x14:cfRule type="dataBar" id="{8e8c9316-dfde-4714-84de-2e906081b36a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1739,7 +1754,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c2e764f4-16b2-476b-b9c7-2e3d52bf6442}">
+          <x14:cfRule type="dataBar" id="{bffeaf4e-5bb9-43c6-a317-b1ded86b8b5d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1753,7 +1768,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{926901bd-39b2-4f2d-980e-e82318601440}">
+          <x14:cfRule type="dataBar" id="{9c4fc327-8393-49d3-aea6-250132e19ed5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1765,7 +1780,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cbad3ca2-7207-4e96-bb50-c6cd72253641}">
+          <x14:cfRule type="dataBar" id="{3ba2f716-f9af-41a2-93fc-ef72af9e43bf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1776,7 +1791,7 @@
           <xm:sqref>E2:E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{65133212-99af-4d7b-b273-341b9d4b6ed8}">
+          <x14:cfRule type="dataBar" id="{eb05b9b9-41f4-48fa-8f1c-d4e6babb170c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1788,7 +1803,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{21e4ce49-9d4f-4215-85ba-a211b466f723}">
+          <x14:cfRule type="dataBar" id="{63c8a814-24ec-4b48-a9dd-1998ac036434}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1802,7 +1817,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{73a2d001-a405-4cbd-aacc-9857054c713a}">
+          <x14:cfRule type="dataBar" id="{f09b3a94-b7bb-4298-8d80-9bc7e54946de}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1813,7 +1828,7 @@
           <xm:sqref>G2:G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b7ace030-68a4-49af-bc02-c9cb37663d45}">
+          <x14:cfRule type="dataBar" id="{f300c71b-c871-4379-bb02-e0b69237feb6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1824,7 +1839,7 @@
           <xm:sqref>G8:G11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{18f9f1bf-38df-4cac-84f4-47d86c081d70}">
+          <x14:cfRule type="dataBar" id="{da41232c-7655-4908-91b5-87cd7619b74f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1836,7 +1851,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{16abda1a-82a6-4a78-8a3a-3a2968c2d167}">
+          <x14:cfRule type="dataBar" id="{d7d3e9a6-54b1-4ef3-b6a1-8eee668b5ef1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1850,7 +1865,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7be0211f-c5d3-4321-9df4-79216fb2b3ff}">
+          <x14:cfRule type="dataBar" id="{6a7d641d-37fc-43d9-826c-26b42ae26797}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1869,17 +1884,301 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.8888888888889" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="15.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.3333333333333" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="19.7777777777778" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:A20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{951eda2d-287b-4c39-aa6c-847d143c04e1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ecc31630-f34a-40a8-8eb3-6dd7c38f47af}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{341642cf-2035-4828-868d-f3e46b468874}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e89e5145-6d59-4f36-a0af-cf188c434c50}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1c541100-f3b8-41fc-8f38-296ab149180a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{67f1de06-843b-443e-9637-28ea4e9e6fd7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{570c2d91-c47d-4125-896f-9ba286f5f3b7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{951eda2d-287b-4c39-aa6c-847d143c04e1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ecc31630-f34a-40a8-8eb3-6dd7c38f47af}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{341642cf-2035-4828-868d-f3e46b468874}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e89e5145-6d59-4f36-a0af-cf188c434c50}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1c541100-f3b8-41fc-8f38-296ab149180a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{67f1de06-843b-443e-9637-28ea4e9e6fd7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{570c2d91-c47d-4125-896f-9ba286f5f3b7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1888,8 +2187,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E365BEE-67D7-4D53-9BDF-BB89B3B00E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10740" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -15,8 +21,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>zeng hanmu</author>
+  </authors>
+  <commentList>
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{C246619C-BA2C-4370-B510-3ECE8F0E46F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zeng hanmu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+阅读其主要的组件的实现思路并书写笔记</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>时间</t>
   </si>
@@ -90,29 +132,49 @@
     <t>vue3源码</t>
   </si>
   <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>nginx</t>
-  </si>
-  <si>
     <t>音标</t>
   </si>
   <si>
     <t>26日</t>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elementPlus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2日-10日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3日-4日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅仅完成了baisc模块、的阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npm基础及常见问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,151 +190,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,194 +245,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -492,356 +254,61 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1128,30 +595,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.3333333333333" style="7" customWidth="1"/>
-    <col min="6" max="6" width="40.3981481481481" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="40.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
+    <row r="1" spans="1:7" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,215 +629,275 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="30.4" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>0.4</v>
       </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" ht="31" customHeight="1" spans="2:5">
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B7" s="8"/>
+    <row r="7" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B8" s="8"/>
+    <row r="8" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B9" s="8"/>
+    <row r="9" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B10" s="8"/>
+    <row r="10" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B12" s="12"/>
+    <row r="12" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B13" s="14"/>
+    <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="6">
+      <c r="D13" s="5"/>
+      <c r="E13" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" ht="30.4" customHeight="1"/>
-    <row r="15" ht="30.4" customHeight="1" spans="2:5">
-      <c r="B15" s="8"/>
+    <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6">
+      <c r="D15" s="5"/>
+      <c r="E15" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" ht="30.4" customHeight="1" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" ht="30.4" customHeight="1"/>
-    <row r="18" ht="30.4" customHeight="1"/>
-    <row r="19" ht="30.4" customHeight="1"/>
-    <row r="20" ht="30.4" customHeight="1"/>
-    <row r="21" ht="30.4" customHeight="1"/>
-    <row r="22" ht="30.4" customHeight="1"/>
-    <row r="23" ht="30.4" customHeight="1"/>
-    <row r="24" ht="30.4" customHeight="1"/>
-    <row r="25" ht="30.4" customHeight="1"/>
-    <row r="26" ht="30.4" customHeight="1"/>
-    <row r="27" ht="30.4" customHeight="1"/>
-    <row r="28" ht="30.4" customHeight="1"/>
-    <row r="29" ht="30.4" customHeight="1"/>
-    <row r="30" ht="30.4" customHeight="1"/>
-    <row r="31" ht="30.4" customHeight="1"/>
-    <row r="32" ht="30.4" customHeight="1"/>
-    <row r="33" ht="30.4" customHeight="1"/>
-    <row r="34" ht="30.4" customHeight="1"/>
-    <row r="35" ht="30.4" customHeight="1"/>
-    <row r="36" ht="30.4" customHeight="1"/>
-    <row r="37" ht="30.4" customHeight="1"/>
-    <row r="38" ht="30.4" customHeight="1"/>
-    <row r="39" ht="30.4" customHeight="1"/>
-    <row r="40" ht="30.4" customHeight="1"/>
-    <row r="41" ht="30.4" customHeight="1"/>
-    <row r="42" ht="30.4" customHeight="1"/>
-    <row r="43" ht="30.4" customHeight="1"/>
-    <row r="44" ht="30.4" customHeight="1"/>
-    <row r="45" ht="30.4" customHeight="1"/>
-    <row r="46" ht="30.4" customHeight="1"/>
-    <row r="47" ht="30.4" customHeight="1"/>
-    <row r="48" ht="30.4" customHeight="1"/>
-    <row r="49" ht="30.4" customHeight="1"/>
+    <row r="16" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A16:A27"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E5">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -1379,7 +907,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8e9d870f-dbbf-4abb-9875-e98740cbb3f1}</x14:id>
+          <x14:id>{8E9D870F-DBBF-4ABB-9875-E98740CBB3F1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1391,7 +919,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e4c6382a-1c44-47ff-bdc6-ddce1816f772}</x14:id>
+          <x14:id>{E4C6382A-1C44-47FF-BDC6-DDCE1816F772}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1403,7 +931,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{73b45fd1-d051-48a2-8528-db09b116d7d8}</x14:id>
+          <x14:id>{73B45FD1-D051-48A2-8528-DB09B116D7D8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1417,7 +945,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4ade348b-67cc-494a-9b93-93c2d2f9f0e1}</x14:id>
+          <x14:id>{4ADE348B-67CC-494A-9B93-93C2D2F9F0E1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1429,7 +957,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dcf91371-2dd2-4383-b861-1b27302098f0}</x14:id>
+          <x14:id>{DCF91371-2DD2-4383-B861-1B27302098F0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1441,7 +969,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2fc1db6f-dff9-4205-87f4-be3ea744714c}</x14:id>
+          <x14:id>{2FC1DB6F-DFF9-4205-87F4-BE3EA744714C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1455,7 +983,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a0239810-6f6e-4a41-954d-f2b979506129}</x14:id>
+          <x14:id>{A0239810-6F6E-4A41-954D-F2B979506129}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1467,7 +995,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{10af228a-a290-4fcf-bbdc-f99af16c770e}</x14:id>
+          <x14:id>{10AF228A-A290-4FCF-BBDC-F99AF16C770E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1479,7 +1007,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1e6a60d8-729a-4a34-88bc-f91eda0cc0c9}</x14:id>
+          <x14:id>{1E6A60D8-729A-4A34-88BC-F91EDA0CC0C9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1493,7 +1021,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8e8c9316-dfde-4714-84de-2e906081b36a}</x14:id>
+          <x14:id>{8E8C9316-DFDE-4714-84DE-2E906081B36A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1505,7 +1033,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bffeaf4e-5bb9-43c6-a317-b1ded86b8b5d}</x14:id>
+          <x14:id>{BFFEAF4E-5BB9-43C6-A317-B1DED86B8B5D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1517,7 +1045,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9c4fc327-8393-49d3-aea6-250132e19ed5}</x14:id>
+          <x14:id>{9C4FC327-8393-49D3-AEA6-250132E19ED5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1529,7 +1057,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3ba2f716-f9af-41a2-93fc-ef72af9e43bf}</x14:id>
+          <x14:id>{3BA2F716-F9AF-41A2-93FC-EF72AF9E43BF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1543,7 +1071,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eb05b9b9-41f4-48fa-8f1c-d4e6babb170c}</x14:id>
+          <x14:id>{EB05B9B9-41F4-48FA-8F1C-D4E6BABB170C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1555,7 +1083,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63c8a814-24ec-4b48-a9dd-1998ac036434}</x14:id>
+          <x14:id>{63C8A814-24EC-4B48-A9DD-1998AC036434}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1567,7 +1095,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f09b3a94-b7bb-4298-8d80-9bc7e54946de}</x14:id>
+          <x14:id>{F09B3A94-B7BB-4298-8D80-9BC7E54946DE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1581,12 +1109,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f300c71b-c871-4379-bb02-e0b69237feb6}</x14:id>
+          <x14:id>{F300C71B-C871-4379-BB02-E0B69237FEB6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1 E7:E14 E16:E1048576">
+  <conditionalFormatting sqref="E7:E14 E1 E16:E1048576">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1595,7 +1123,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{da41232c-7655-4908-91b5-87cd7619b74f}</x14:id>
+          <x14:id>{DA41232C-7655-4908-91B5-87CD7619B74F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1607,7 +1135,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d7d3e9a6-54b1-4ef3-b6a1-8eee668b5ef1}</x14:id>
+          <x14:id>{D7D3E9A6-54B1-4EF3-B6A1-8EEE668B5EF1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1619,19 +1147,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a7d641d-37fc-43d9-826c-26b42ae26797}</x14:id>
+          <x14:id>{6A7D641D-37FC-43D9-826C-26B42AE26797}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8e9d870f-dbbf-4abb-9875-e98740cbb3f1}">
+          <x14:cfRule type="dataBar" id="{8E9D870F-DBBF-4ABB-9875-E98740CBB3F1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1643,7 +1171,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e4c6382a-1c44-47ff-bdc6-ddce1816f772}">
+          <x14:cfRule type="dataBar" id="{E4C6382A-1C44-47FF-BDC6-DDCE1816F772}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1657,7 +1185,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{73b45fd1-d051-48a2-8528-db09b116d7d8}">
+          <x14:cfRule type="dataBar" id="{73B45FD1-D051-48A2-8528-DB09B116D7D8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1668,7 +1196,7 @@
           <xm:sqref>E5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4ade348b-67cc-494a-9b93-93c2d2f9f0e1}">
+          <x14:cfRule type="dataBar" id="{4ADE348B-67CC-494A-9B93-93C2D2F9F0E1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1680,7 +1208,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{dcf91371-2dd2-4383-b861-1b27302098f0}">
+          <x14:cfRule type="dataBar" id="{DCF91371-2DD2-4383-B861-1B27302098F0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1694,7 +1222,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2fc1db6f-dff9-4205-87f4-be3ea744714c}">
+          <x14:cfRule type="dataBar" id="{2FC1DB6F-DFF9-4205-87F4-BE3EA744714C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1705,7 +1233,7 @@
           <xm:sqref>E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a0239810-6f6e-4a41-954d-f2b979506129}">
+          <x14:cfRule type="dataBar" id="{A0239810-6F6E-4A41-954D-F2B979506129}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1717,7 +1245,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{10af228a-a290-4fcf-bbdc-f99af16c770e}">
+          <x14:cfRule type="dataBar" id="{10AF228A-A290-4FCF-BBDC-F99AF16C770E}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1731,7 +1259,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1e6a60d8-729a-4a34-88bc-f91eda0cc0c9}">
+          <x14:cfRule type="dataBar" id="{1E6A60D8-729A-4A34-88BC-F91EDA0CC0C9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1742,7 +1270,7 @@
           <xm:sqref>E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8e8c9316-dfde-4714-84de-2e906081b36a}">
+          <x14:cfRule type="dataBar" id="{8E8C9316-DFDE-4714-84DE-2E906081B36A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1754,7 +1282,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bffeaf4e-5bb9-43c6-a317-b1ded86b8b5d}">
+          <x14:cfRule type="dataBar" id="{BFFEAF4E-5BB9-43C6-A317-B1DED86B8B5D}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1768,7 +1296,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9c4fc327-8393-49d3-aea6-250132e19ed5}">
+          <x14:cfRule type="dataBar" id="{9C4FC327-8393-49D3-AEA6-250132E19ED5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1780,7 +1308,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3ba2f716-f9af-41a2-93fc-ef72af9e43bf}">
+          <x14:cfRule type="dataBar" id="{3BA2F716-F9AF-41A2-93FC-EF72AF9E43BF}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1791,7 +1319,7 @@
           <xm:sqref>E2:E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eb05b9b9-41f4-48fa-8f1c-d4e6babb170c}">
+          <x14:cfRule type="dataBar" id="{EB05B9B9-41F4-48FA-8F1C-D4E6BABB170C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1803,7 +1331,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{63c8a814-24ec-4b48-a9dd-1998ac036434}">
+          <x14:cfRule type="dataBar" id="{63C8A814-24EC-4B48-A9DD-1998AC036434}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1817,7 +1345,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f09b3a94-b7bb-4298-8d80-9bc7e54946de}">
+          <x14:cfRule type="dataBar" id="{F09B3A94-B7BB-4298-8D80-9BC7E54946DE}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1828,7 +1356,7 @@
           <xm:sqref>G2:G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f300c71b-c871-4379-bb02-e0b69237feb6}">
+          <x14:cfRule type="dataBar" id="{F300C71B-C871-4379-BB02-E0B69237FEB6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1839,7 +1367,7 @@
           <xm:sqref>G8:G11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{da41232c-7655-4908-91b5-87cd7619b74f}">
+          <x14:cfRule type="dataBar" id="{DA41232C-7655-4908-91B5-87CD7619B74F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1851,7 +1379,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d7d3e9a6-54b1-4ef3-b6a1-8eee668b5ef1}">
+          <x14:cfRule type="dataBar" id="{D7D3E9A6-54B1-4EF3-B6A1-8EEE668B5EF1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1865,7 +1393,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6a7d641d-37fc-43d9-826c-26b42ae26797}">
+          <x14:cfRule type="dataBar" id="{6A7D641D-37FC-43D9-826C-26B42AE26797}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1873,7 +1401,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E1 E7:E14 E16:E1048576</xm:sqref>
+          <xm:sqref>E7:E14 E1 E16:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1882,27 +1410,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.8888888888889" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.3333333333333" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="19.7777777777778" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="19.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
+    <row r="1" spans="1:8" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,90 +1439,93 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A2:A20"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
     <cfRule type="dataBar" priority="7">
       <dataBar>
@@ -2005,7 +1535,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{951eda2d-287b-4c39-aa6c-847d143c04e1}</x14:id>
+          <x14:id>{951EDA2D-287B-4C39-AA6C-847D143C04E1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2017,7 +1547,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ecc31630-f34a-40a8-8eb3-6dd7c38f47af}</x14:id>
+          <x14:id>{ECC31630-F34A-40A8-8EB3-6DD7C38F47AF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2029,7 +1559,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{341642cf-2035-4828-868d-f3e46b468874}</x14:id>
+          <x14:id>{341642CF-2035-4828-868D-F3E46B468874}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2043,7 +1573,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e89e5145-6d59-4f36-a0af-cf188c434c50}</x14:id>
+          <x14:id>{E89E5145-6D59-4F36-A0AF-CF188C434C50}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2055,7 +1585,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1c541100-f3b8-41fc-8f38-296ab149180a}</x14:id>
+          <x14:id>{1C541100-F3B8-41FC-8F38-296AB149180A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2067,7 +1597,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67f1de06-843b-443e-9637-28ea4e9e6fd7}</x14:id>
+          <x14:id>{67F1DE06-843B-443E-9637-28EA4E9E6FD7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2079,19 +1609,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{570c2d91-c47d-4125-896f-9ba286f5f3b7}</x14:id>
+          <x14:id>{570C2D91-C47D-4125-896F-9BA286F5F3B7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{951eda2d-287b-4c39-aa6c-847d143c04e1}">
+          <x14:cfRule type="dataBar" id="{951EDA2D-287B-4C39-AA6C-847D143C04E1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2099,7 +1628,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ecc31630-f34a-40a8-8eb3-6dd7c38f47af}">
+          <x14:cfRule type="dataBar" id="{ECC31630-F34A-40A8-8EB3-6DD7C38F47AF}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -2113,7 +1642,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{341642cf-2035-4828-868d-f3e46b468874}">
+          <x14:cfRule type="dataBar" id="{341642CF-2035-4828-868D-F3E46B468874}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -2128,7 +1657,7 @@
           <xm:sqref>E1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e89e5145-6d59-4f36-a0af-cf188c434c50}">
+          <x14:cfRule type="dataBar" id="{E89E5145-6D59-4F36-A0AF-CF188C434C50}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2136,7 +1665,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1c541100-f3b8-41fc-8f38-296ab149180a}">
+          <x14:cfRule type="dataBar" id="{1C541100-F3B8-41FC-8F38-296AB149180A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -2148,7 +1677,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{67f1de06-843b-443e-9637-28ea4e9e6fd7}">
+          <x14:cfRule type="dataBar" id="{67F1DE06-843B-443E-9637-28EA4E9E6FD7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -2162,7 +1691,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{570c2d91-c47d-4125-896f-9ba286f5f3b7}">
+          <x14:cfRule type="dataBar" id="{570C2D91-C47D-4125-896F-9BA286F5F3B7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -2183,18 +1712,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E365BEE-67D7-4D53-9BDF-BB89B3B00E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632BD143-DC58-4A83-B695-0A80909C022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>时间</t>
   </si>
@@ -136,10 +136,6 @@
   </si>
   <si>
     <t>26日</t>
-  </si>
-  <si>
-    <t>1月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>elementPlus</t>
@@ -167,6 +163,22 @@
   </si>
   <si>
     <t>npm基础及常见问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-10日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ant-design-pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>umi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -285,16 +297,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,7 +616,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -640,7 +652,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
@@ -656,7 +668,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -667,7 +679,7 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -678,7 +690,7 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -691,7 +703,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -704,7 +716,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -717,7 +729,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -730,7 +742,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -743,7 +755,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -756,7 +768,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -769,7 +781,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -782,7 +794,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -793,7 +805,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
@@ -807,74 +819,97 @@
     </row>
     <row r="16" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="E16" s="3">
         <v>0.25</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1445,14 +1480,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
@@ -1467,58 +1502,58 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="11"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632BD143-DC58-4A83-B695-0A80909C022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED91705A-F146-4F6C-809D-A6F181755C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>时间</t>
   </si>
@@ -179,6 +179,14 @@
   </si>
   <si>
     <t>umi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-22日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniapp（商城项目）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -615,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -886,6 +894,13 @@
     </row>
     <row r="21" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED91705A-F146-4F6C-809D-A6F181755C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE5CD9C-103F-4B1A-8016-F360B40F31A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>时间</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>uniapp（商城项目）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>egg+mongo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了单表的操作练习</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -816,6 +828,9 @@
       <c r="A14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -826,9 +841,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="A16" s="10"/>
       <c r="B16" s="2"/>
       <c r="C16" s="8" t="s">
         <v>26</v>
@@ -843,8 +856,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8" t="s">
         <v>28</v>
@@ -853,8 +866,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
       <c r="B18" s="2"/>
       <c r="C18" s="8" t="s">
         <v>32</v>
@@ -866,8 +879,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
       <c r="B19" s="2"/>
       <c r="C19" s="8" t="s">
         <v>35</v>
@@ -879,8 +892,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
       <c r="B20" s="2"/>
       <c r="C20" s="8" t="s">
         <v>36</v>
@@ -892,8 +905,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
       <c r="B21" s="2"/>
       <c r="C21" s="8" t="s">
         <v>38</v>
@@ -901,30 +914,47 @@
       <c r="D21" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -945,7 +975,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A15:A27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E5">
@@ -1577,6 +1607,30 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{341642CF-2035-4828-868D-F3E46B468874}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ECC31630-F34A-40A8-8EB3-6DD7C38F47AF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -1589,19 +1643,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ECC31630-F34A-40A8-8EB3-6DD7C38F47AF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1609,12 +1653,34 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{341642CF-2035-4828-868D-F3E46B468874}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+          <x14:id>{570C2D91-C47D-4125-896F-9BA286F5F3B7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{67F1DE06-843B-443E-9637-28EA4E9E6FD7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1C541100-F3B8-41FC-8F38-296AB149180A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -1624,42 +1690,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{E89E5145-6D59-4F36-A0AF-CF188C434C50}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1C541100-F3B8-41FC-8F38-296AB149180A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67F1DE06-843B-443E-9637-28EA4E9E6FD7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{570C2D91-C47D-4125-896F-9BA286F5F3B7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1670,6 +1700,32 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{341642CF-2035-4828-868D-F3E46B468874}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ECC31630-F34A-40A8-8EB3-6DD7C38F47AF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{951EDA2D-287B-4C39-AA6C-847D143C04E1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -1678,77 +1734,51 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ECC31630-F34A-40A8-8EB3-6DD7C38F47AF}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{341642CF-2035-4828-868D-F3E46B468874}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
           <xm:sqref>E1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{570C2D91-C47D-4125-896F-9BA286F5F3B7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{67F1DE06-843B-443E-9637-28EA4E9E6FD7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1C541100-F3B8-41FC-8F38-296AB149180A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{E89E5145-6D59-4F36-A0AF-CF188C434C50}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1C541100-F3B8-41FC-8F38-296AB149180A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{67F1DE06-843B-443E-9637-28EA4E9E6FD7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{570C2D91-C47D-4125-896F-9BA286F5F3B7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE5CD9C-103F-4B1A-8016-F360B40F31A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4381B567-AB8F-45D8-A5BE-83F06D040E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,12 +53,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{4AF33DB9-A9B8-47E4-A140-738E88F810CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zeng hanmu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+查询与设计先搞定了，剩下的都不难的</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>时间</t>
   </si>
@@ -199,6 +225,30 @@
   </si>
   <si>
     <t>完成了单表的操作练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>egg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-18日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17日-18日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongoose 查询与设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22日-23日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +301,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -292,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +376,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -635,15 +696,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="40.44140625" style="1" customWidth="1"/>
@@ -672,7 +733,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
@@ -688,7 +749,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -699,7 +760,7 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -710,7 +771,7 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -723,7 +784,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -736,7 +797,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -749,7 +810,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -762,7 +823,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -775,7 +836,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -788,7 +849,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -801,7 +862,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -814,7 +875,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -825,10 +886,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="2"/>
@@ -841,7 +902,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2"/>
       <c r="C16" s="8" t="s">
         <v>26</v>
@@ -857,7 +918,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8" t="s">
         <v>28</v>
@@ -867,7 +928,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="2"/>
       <c r="C18" s="8" t="s">
         <v>32</v>
@@ -880,7 +941,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="2"/>
       <c r="C19" s="8" t="s">
         <v>35</v>
@@ -893,7 +954,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2"/>
       <c r="C20" s="8" t="s">
         <v>36</v>
@@ -906,7 +967,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2"/>
       <c r="C21" s="8" t="s">
         <v>38</v>
@@ -917,7 +978,7 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="C22" s="8" t="s">
         <v>40</v>
       </c>
@@ -932,25 +993,45 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="C24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="D25" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+    </row>
     <row r="29" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -973,13 +1054,14 @@
     <row r="48" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -987,11 +1069,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8E9D870F-DBBF-4ABB-9875-E98740CBB3F1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
+          <x14:id>{8E8C9316-DFDE-4714-84DE-2E906081B36A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0"/>
@@ -999,11 +1081,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E4C6382A-1C44-47FF-BDC6-DDCE1816F772}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
+          <x14:id>{BFFEAF4E-5BB9-43C6-A317-B1DED86B8B5D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9C4FC327-8393-49D3-AEA6-250132E19ED5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1011,6 +1105,44 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3BA2F716-F9AF-41A2-93FC-EF72AF9E43BF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8E9D870F-DBBF-4ABB-9875-E98740CBB3F1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E4C6382A-1C44-47FF-BDC6-DDCE1816F772}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{73B45FD1-D051-48A2-8528-DB09B116D7D8}</x14:id>
         </ext>
       </extLst>
@@ -1054,8 +1186,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="E7:E14 E1 E16:E1048576">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1063,11 +1195,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A0239810-6F6E-4A41-954D-F2B979506129}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
+          <x14:id>{DA41232C-7655-4908-91B5-87CD7619B74F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0"/>
@@ -1075,11 +1207,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{10AF228A-A290-4FCF-BBDC-F99AF16C770E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="16">
+          <x14:id>{D7D3E9A6-54B1-4EF3-B6A1-8EEE668B5EF1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1087,13 +1219,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1E6A60D8-729A-4A34-88BC-F91EDA0CC0C9}</x14:id>
+          <x14:id>{6A7D641D-37FC-43D9-826C-26B42AE26797}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="E15">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1101,11 +1233,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8E8C9316-DFDE-4714-84DE-2E906081B36A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="8">
+          <x14:id>{A0239810-6F6E-4A41-954D-F2B979506129}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0"/>
@@ -1113,23 +1245,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BFFEAF4E-5BB9-43C6-A317-B1DED86B8B5D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9C4FC327-8393-49D3-AEA6-250132E19ED5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="10">
+          <x14:id>{10AF228A-A290-4FCF-BBDC-F99AF16C770E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1137,7 +1257,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3BA2F716-F9AF-41A2-93FC-EF72AF9E43BF}</x14:id>
+          <x14:id>{1E6A60D8-729A-4A34-88BC-F91EDA0CC0C9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1190,44 +1310,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F300C71B-C871-4379-BB02-E0B69237FEB6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E14 E1 E16:E1048576">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DA41232C-7655-4908-91B5-87CD7619B74F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D7D3E9A6-54B1-4EF3-B6A1-8EEE668B5EF1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6A7D641D-37FC-43D9-826C-26B42AE26797}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1239,6 +1321,55 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8E8C9316-DFDE-4714-84DE-2E906081B36A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{BFFEAF4E-5BB9-43C6-A317-B1DED86B8B5D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9C4FC327-8393-49D3-AEA6-250132E19ED5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{3BA2F716-F9AF-41A2-93FC-EF72AF9E43BF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8E9D870F-DBBF-4ABB-9875-E98740CBB3F1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -1313,6 +1444,43 @@
           <xm:sqref>E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DA41232C-7655-4908-91B5-87CD7619B74F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{D7D3E9A6-54B1-4EF3-B6A1-8EEE668B5EF1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{6A7D641D-37FC-43D9-826C-26B42AE26797}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E7:E14 E1 E16:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0239810-6F6E-4A41-954D-F2B979506129}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -1348,55 +1516,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8E8C9316-DFDE-4714-84DE-2E906081B36A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{BFFEAF4E-5BB9-43C6-A317-B1DED86B8B5D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9C4FC327-8393-49D3-AEA6-250132E19ED5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3BA2F716-F9AF-41A2-93FC-EF72AF9E43BF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E2:E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB05B9B9-41F4-48FA-8F1C-D4E6BABB170C}">
@@ -1445,43 +1564,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>G8:G11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DA41232C-7655-4908-91B5-87CD7619B74F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{D7D3E9A6-54B1-4EF3-B6A1-8EEE668B5EF1}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6A7D641D-37FC-43D9-826C-26B42AE26797}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E7:E14 E1 E16:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1525,14 +1607,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
@@ -1547,58 +1629,58 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4381B567-AB8F-45D8-A5BE-83F06D040E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D0C0A-E288-4F74-88D4-19E59A8D60CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
-    <sheet name="english" sheetId="2" r:id="rId2"/>
-    <sheet name="time" sheetId="3" r:id="rId3"/>
+    <sheet name="every_day" sheetId="3" r:id="rId2"/>
+    <sheet name="english" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -27,7 +27,7 @@
     <author>zeng hanmu</author>
   </authors>
   <commentList>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{C246619C-BA2C-4370-B510-3ECE8F0E46F4}">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{C246619C-BA2C-4370-B510-3ECE8F0E46F4}">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{4AF33DB9-A9B8-47E4-A140-738E88F810CC}">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{4AF33DB9-A9B8-47E4-A140-738E88F810CC}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>时间</t>
   </si>
@@ -110,9 +110,6 @@
     <t>react</t>
   </si>
   <si>
-    <t>13日-14日</t>
-  </si>
-  <si>
     <t>react-router</t>
   </si>
   <si>
@@ -125,18 +122,12 @@
     <t>nodejs</t>
   </si>
   <si>
-    <t>13日-20日</t>
-  </si>
-  <si>
     <t>umijs</t>
   </si>
   <si>
     <t>webpack</t>
   </si>
   <si>
-    <t>13日-15日</t>
-  </si>
-  <si>
     <t>vue二开</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>network</t>
   </si>
   <si>
-    <t>13日</t>
-  </si>
-  <si>
     <t>broswer</t>
   </si>
   <si>
@@ -168,26 +156,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2日-10日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>工程化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3日-4日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>仅仅完成了baisc模块、的阅读</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>npm基础及常见问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -196,10 +172,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7-10日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ant-design-pro</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -208,18 +180,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12-22日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>uniapp（商城项目）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>25日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>egg+mongo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -236,19 +200,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>17-18日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17日-18日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mongoose 查询与设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>22日-23日</t>
+    <t>7月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker入门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>node学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h：乱翻资料</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -366,9 +350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,6 +370,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,373 +678,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="40.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="27.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3">
+    </row>
+    <row r="19" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3">
+    <row r="21" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="E22" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="8" t="s">
+    <row r="30" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="C22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="C24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="D25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+    </row>
+    <row r="39" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:A42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E4">
+  <conditionalFormatting sqref="D2:D4">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1110,7 +1074,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
+  <conditionalFormatting sqref="D5">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1148,7 +1112,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="D6">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1186,7 +1150,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E14 E1 E16:E1048576">
+  <conditionalFormatting sqref="D7:D14 D1 D16:D1048576">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1224,7 +1188,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
+  <conditionalFormatting sqref="D15">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1262,7 +1226,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="F2:F4">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1300,7 +1264,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G11">
+  <conditionalFormatting sqref="F8:F11">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -1367,7 +1331,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E4</xm:sqref>
+          <xm:sqref>D2:D4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8E9D870F-DBBF-4ABB-9875-E98740CBB3F1}">
@@ -1404,7 +1368,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E5</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4ADE348B-67CC-494A-9B93-93C2D2F9F0E1}">
@@ -1441,7 +1405,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E6</xm:sqref>
+          <xm:sqref>D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DA41232C-7655-4908-91B5-87CD7619B74F}">
@@ -1478,7 +1442,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E14 E1 E16:E1048576</xm:sqref>
+          <xm:sqref>D7:D14 D1 D16:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0239810-6F6E-4A41-954D-F2B979506129}">
@@ -1515,7 +1479,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E15</xm:sqref>
+          <xm:sqref>D15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB05B9B9-41F4-48FA-8F1C-D4E6BABB170C}">
@@ -1552,7 +1516,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G4</xm:sqref>
+          <xm:sqref>F2:F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F300C71B-C871-4379-BB02-E0B69237FEB6}">
@@ -1563,7 +1527,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G8:G11</xm:sqref>
+          <xm:sqref>F8:F11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1572,6 +1536,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -1607,80 +1650,80 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3">
         <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="11"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="11"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1871,20 +1914,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D0C0A-E288-4F74-88D4-19E59A8D60CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45038992-E9F6-4E4B-9938-FD8439946B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>zeng hanmu</author>
   </authors>
   <commentList>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{C246619C-BA2C-4370-B510-3ECE8F0E46F4}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{C246619C-BA2C-4370-B510-3ECE8F0E46F4}">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{4AF33DB9-A9B8-47E4-A140-738E88F810CC}">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{4AF33DB9-A9B8-47E4-A140-738E88F810CC}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>时间</t>
   </si>
@@ -220,19 +220,186 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>node学习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耗时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3h：乱翻资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-17日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-24日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>node学习（6h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的设计模式实战（8h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis（1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端（uniapp 10h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成核心模块的学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>js重学（3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际耗时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充描述（主要是写一下学习资料位置）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天是11.30才到的，明天争取8点前到图书馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差proxy、reflect对象，那几个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts（3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式实战：7h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天是10.10分到的，争取明天9点前到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react实战（3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项
+1、一天最多安排5件事，多个也做不好，重要的放前面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法（10h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx（1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微前端（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序（3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql入门（5h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>next（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nest（5h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue源码（10h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react源码（10h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-30日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git（1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">redis 入门：1h
+mysql入门：2h
+ts重学：1h
+算法入门：1h
+docker入门：1h
+shell入门：1h
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>css（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>js测试用例编写（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历调整（1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试训练（5h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,17 +529,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,353 +848,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="27.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="41.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="40.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3">
         <v>0.4</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="1" t="s">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3">
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3">
+      <c r="D12" s="5"/>
+      <c r="E12" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3">
+      <c r="D13" s="6"/>
+      <c r="E13" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3">
         <v>0.25</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7" t="s">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3">
+      <c r="D18" s="2"/>
+      <c r="E18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3">
+      <c r="D20" s="2"/>
+      <c r="E20" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="7" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>0.5</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="7" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="7"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="7"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="3">
+      <c r="D29" s="8"/>
+      <c r="E29" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-    </row>
-    <row r="33" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-    </row>
-    <row r="34" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-    </row>
-    <row r="35" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-    </row>
-    <row r="36" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="30" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-    </row>
-    <row r="38" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-    </row>
-    <row r="39" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-    </row>
-    <row r="40" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-    </row>
-    <row r="41" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-    </row>
-    <row r="42" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-    </row>
-    <row r="43" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="30.45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A36:A59"/>
+    <mergeCell ref="B36:B40"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B41:B56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D4">
+  <conditionalFormatting sqref="E2:E4">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1074,7 +1436,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="E5">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1112,7 +1474,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="E6">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1150,7 +1512,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D14 D1 D16:D1048576">
+  <conditionalFormatting sqref="E7:E14 E1 E16:E1048576">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1188,7 +1550,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="E15">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1226,7 +1588,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F4">
+  <conditionalFormatting sqref="G2:G4">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1264,7 +1626,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F11">
+  <conditionalFormatting sqref="G8:G11">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -1331,7 +1693,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D4</xm:sqref>
+          <xm:sqref>E2:E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8E9D870F-DBBF-4ABB-9875-E98740CBB3F1}">
@@ -1368,7 +1730,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D5</xm:sqref>
+          <xm:sqref>E5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4ADE348B-67CC-494A-9B93-93C2D2F9F0E1}">
@@ -1405,7 +1767,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6</xm:sqref>
+          <xm:sqref>E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DA41232C-7655-4908-91B5-87CD7619B74F}">
@@ -1442,7 +1804,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D14 D1 D16:D1048576</xm:sqref>
+          <xm:sqref>E7:E14 E1 E16:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0239810-6F6E-4A41-954D-F2B979506129}">
@@ -1479,7 +1841,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15</xm:sqref>
+          <xm:sqref>E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB05B9B9-41F4-48FA-8F1C-D4E6BABB170C}">
@@ -1516,7 +1878,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F2:F4</xm:sqref>
+          <xm:sqref>G2:G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F300C71B-C871-4379-BB02-E0B69237FEB6}">
@@ -1527,7 +1889,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F8:F11</xm:sqref>
+          <xm:sqref>G8:G11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1537,76 +1899,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A16"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1650,14 +2084,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
@@ -1672,58 +2106,58 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="13"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="13"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45038992-E9F6-4E4B-9938-FD8439946B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C8721C-235F-4637-B0B4-59BE4185FC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
   <si>
     <t>时间</t>
   </si>
@@ -244,26 +244,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>redis（1h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络（2h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker（2h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>shell（2h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>移动端（uniapp 10h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成核心模块的学习</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -328,11 +312,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>注意事项
-1、一天最多安排5件事，多个也做不好，重要的放前面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>算法（10h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -345,10 +324,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>微信小程序（3h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mysql入门（5h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -377,29 +352,234 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">redis 入门：1h
+    <t>css（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>js测试用例编写（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历调整（1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试训练（5h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件库原理，如vite、webpack、router（10h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">算法入门：4h
+redis 入门：1h
 mysql入门：2h
 ts重学：1h
-算法入门：1h
 docker入门：1h
 shell入门：1h
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>css（2h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>js测试用例编写（2h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>简历调整（1h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试训练（5h）</t>
+    <t>20日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啥都没干，躺了一天，还被蚊子咬了，
+导致无心学习，记住图书馆周三是闭馆的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写技术文档的能力（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx 1h
+mysql 2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux（3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列举了大纲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列举了大纲，编写了demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeorm（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读《mysql必知必会》
+差demo和高级操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络（1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了大纲，差demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差tcp、udp的区别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql 5h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大致看完《mysql必知必会》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.30到的，太晚咯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项
+1、一天最多安排5件事，多个也做不好，重要的放前面，
+2、每天待在图书馆里的时间是9点到9点，是12h，至少安排8h的工作量，留2h容错，2h用来吃饭睡觉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniapp（5h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解第三方工具，如第三方登录qq、上传qiniu（3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程化，如CI/CD自动化，jekens（3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把基础都过了一遍，差demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker（3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解redis的常见api，
+缺少redis客户端（ioredis）的练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react生态，如redux（3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补一下学习所欠缺的demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker 2h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>redis 1h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+react 2h
+小程序 2h
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeorm 1h
+小程序 3h
+react 生态 3h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>taro（5h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverless、云开发（3h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +587,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +640,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -501,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -542,6 +739,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -848,17 +1051,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="41.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="40.44140625" style="1" customWidth="1"/>
@@ -880,10 +1083,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1167,7 +1370,7 @@
       <c r="A35" s="12"/>
     </row>
     <row r="36" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -1178,212 +1381,399 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="3">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="11"/>
       <c r="C37" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="3">
-        <v>0.8</v>
+        <v>0.7</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="11"/>
       <c r="C38" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="3">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="11"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="11"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
       <c r="B42" s="11"/>
       <c r="C42" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="11"/>
       <c r="C43" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="3">
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="11"/>
       <c r="C44" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
       <c r="B45" s="11"/>
       <c r="C45" s="7" t="s">
-        <v>47</v>
+        <v>105</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="11"/>
       <c r="C46" s="7" t="s">
-        <v>48</v>
+        <v>89</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="11"/>
       <c r="C47" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="11"/>
       <c r="C48" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
       <c r="B49" s="11"/>
       <c r="C49" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
+        <v>112</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
       <c r="B50" s="11"/>
       <c r="C50" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
       <c r="B51" s="11"/>
       <c r="C51" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
       <c r="B53" s="11"/>
       <c r="C53" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
       <c r="B54" s="11"/>
       <c r="C54" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
       <c r="B55" s="11"/>
       <c r="C55" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
       <c r="B56" s="11"/>
       <c r="C56" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="11"/>
+      <c r="C62" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="15"/>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="11"/>
+      <c r="C64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="11"/>
+      <c r="C69" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="11"/>
+      <c r="C70" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="11"/>
+      <c r="C71" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="11"/>
+      <c r="C72" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="11"/>
+      <c r="C73" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="15"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="11"/>
+      <c r="C74" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A36:A59"/>
+  <mergeCells count="7">
+    <mergeCell ref="B61:B77"/>
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B41:B56"/>
+    <mergeCell ref="B41:B59"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E2:E4">
@@ -1512,7 +1902,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E14 E1 E16:E1048576">
+  <conditionalFormatting sqref="E62:E1048576 E7:E14 E1 E16:E60">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1804,7 +2194,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E14 E1 E16:E1048576</xm:sqref>
+          <xm:sqref>E62:E1048576 E7:E14 E1 E16:E60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0239810-6F6E-4A41-954D-F2B979506129}">
@@ -1899,148 +2289,233 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A30"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A19:A31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24BD5FC-C205-4A64-A42A-7D421B6794E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F79238D-D70E-47AA-B1F7-166CD11D2AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,13 +466,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>redux-toolkit 1h
+    <r>
+      <t xml:space="preserve">redux-toolkit 1h
 hook-admin 2h
 路线确认一下，不然 1h
 浏览器 1h
 serverless 1h
 看下源码怎么读 1h
-把文件合并一下 0.5h</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>把文件合并一下 0.5h</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -604,6 +618,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -611,9 +628,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,8 +937,8 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -959,10 +973,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -977,8 +991,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
@@ -994,8 +1008,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1011,20 +1025,20 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1033,8 +1047,8 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1047,8 +1061,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1058,8 +1072,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="5" t="s">
         <v>77</v>
       </c>
@@ -1067,8 +1081,8 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="5" t="s">
         <v>75</v>
       </c>
@@ -1081,8 +1095,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
@@ -1095,8 +1109,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="5" t="s">
         <v>74</v>
       </c>
@@ -1109,8 +1123,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1123,24 +1137,24 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="5" t="s">
         <v>81</v>
       </c>
@@ -1153,25 +1167,25 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
@@ -1181,8 +1195,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="5" t="s">
         <v>34</v>
       </c>
@@ -1198,9 +1212,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="10"/>
@@ -1209,16 +1223,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
@@ -1228,14 +1242,14 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>86</v>
@@ -1244,8 +1258,8 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1260,8 +1274,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="5" t="s">
         <v>93</v>
       </c>
@@ -1270,17 +1284,17 @@
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="6"/>
@@ -1292,8 +1306,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="5" t="s">
         <v>92</v>
       </c>
@@ -1302,8 +1316,8 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="5" t="s">
         <v>38</v>
       </c>
@@ -1313,66 +1327,66 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -1381,63 +1395,63 @@
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1539,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1575,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1572,7 +1586,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
@@ -1584,7 +1598,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
@@ -1596,7 +1610,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="7" t="s">
         <v>50</v>
       </c>
@@ -1608,7 +1622,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="7" t="s">
         <v>64</v>
       </c>
@@ -1620,7 +1634,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="7" t="s">
         <v>63</v>
       </c>
@@ -1632,7 +1646,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="7" t="s">
         <v>71</v>
       </c>
@@ -1642,7 +1656,7 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="7" t="s">
         <v>95</v>
       </c>
@@ -1653,70 +1667,70 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="7"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="7"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="7"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="7"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="7"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="7"/>
@@ -1725,44 +1739,44 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
       <c r="D20" s="8"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1811,14 +1825,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
@@ -1833,58 +1847,58 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F79238D-D70E-47AA-B1F7-166CD11D2AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3885891-8280-4F7B-B1D3-A1CAF23B1BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>时间</t>
   </si>
@@ -442,10 +442,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成了大致的目录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>redux（1h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -462,16 +458,65 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>各种方案的设计（1h）</t>
+    <t>了解了云计算的基本概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的业务方案的设计（1h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <t xml:space="preserve">redux-toolkit 1h
 hook-admin 2h
-路线确认一下，不然 1h
-浏览器 1h
-serverless 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览器 2h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>serverless 1h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 看下源码怎么读 1h
 </t>
     </r>
@@ -485,8 +530,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>把文件合并一下 0.5h</t>
+      <t xml:space="preserve">把文件合并一下 0.5h
+</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>路线确认一下，不然 1h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了大致的目录，差练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分概念已捋清楚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -934,11 +999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1315,9 @@
     </row>
     <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="C27" s="5" t="s">
         <v>86</v>
       </c>
@@ -1259,9 +1326,7 @@
     </row>
     <row r="28" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="B28" s="12"/>
       <c r="C28" s="5" t="s">
         <v>29</v>
       </c>
@@ -1270,14 +1335,14 @@
         <v>0.3</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="3"/>
@@ -1309,13 +1374,13 @@
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="3"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="5" t="s">
@@ -1326,141 +1391,142 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="5" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="5" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+    <row r="37" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+    <row r="38" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="5" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+    <row r="39" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+        <v>78</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>85</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="5" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="A2:A40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B28:B40"/>
+    <mergeCell ref="B37:B46"/>
+    <mergeCell ref="A2:A36"/>
+    <mergeCell ref="A37:A46"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B27:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
@@ -1553,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1658,7 +1724,7 @@
     <row r="9" spans="1:5" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>97</v>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3885891-8280-4F7B-B1D3-A1CAF23B1BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41234CFA-0FFD-44E3-BEA0-B4E97445A453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>zeng hanmu</author>
+  </authors>
+  <commentList>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{22AA48A3-2436-4ADF-AF7E-CE575BFD59C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zeng hanmu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+你不学ts是没法跟他们一起玩的</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
   <si>
     <t>时间</t>
   </si>
@@ -442,14 +478,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>redux（1h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hook-admin项目（3h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>devops（3h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -466,9 +494,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>完成了大致的目录，差练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分概念已捋清楚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vercel（1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eslint（1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">redux-toolkit 1h
-hook-admin 2h
+      <t xml:space="preserve">hook-admin 2h
 </t>
     </r>
     <r>
@@ -547,11 +590,181 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成了大致的目录，差练习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大部分概念已捋清楚</t>
+    <t>redux-toolkit 3h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redux-toolkit（3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hook-admin项目（5h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先自己搭建一个空项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>umijs（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">umijs 2h
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩坑：在npm 安装上花费了太多时间了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ant-pro（4h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装设计（2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>antd-admin 4h
+工程化 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看龙珠去了，偷懒了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看龙珠去了，偷懒了，看到变身后就不看了，这已经变成一件痛苦的事情了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现有很多pro-component组件，非常有用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>antd-admin 5h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+工程化 1h
+设计封装思路 1h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro-clone实现（3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看龙珠看到2点才开始动工，我的天，永远在吃同一个亏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了解一下他的菜单和路由 2h
+mock插件 1h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+动态菜单 3h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10点30开始进入工作，react基础太烂了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上玩手机玩的太晚了，导致手机没电了，
+没闹钟，不能带手机上床，不管任何理由都要6点起床</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8日-15日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成了大致的阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握常见用法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆一下分析页面、工作台页面 2h
+表单的3个页面 2h
+学一下react源码 1h
+monRepo 1h</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +772,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +784,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -614,6 +828,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -649,7 +878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +914,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -998,17 +1230,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="51.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="4" customWidth="1"/>
@@ -1038,10 +1271,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1056,8 +1289,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1073,8 +1306,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1090,20 +1323,20 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1112,8 +1345,8 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1126,8 +1359,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1137,8 +1370,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="5" t="s">
         <v>77</v>
       </c>
@@ -1146,8 +1379,8 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="5" t="s">
         <v>75</v>
       </c>
@@ -1160,8 +1393,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
@@ -1174,8 +1407,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="5" t="s">
         <v>74</v>
       </c>
@@ -1188,8 +1421,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1202,24 +1435,24 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="5" t="s">
         <v>81</v>
       </c>
@@ -1232,25 +1465,25 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
@@ -1260,8 +1493,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5" t="s">
         <v>34</v>
       </c>
@@ -1277,8 +1510,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
         <v>35</v>
       </c>
@@ -1288,16 +1521,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
@@ -1307,15 +1540,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1325,8 +1558,8 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="5" t="s">
         <v>29</v>
       </c>
@@ -1335,30 +1568,34 @@
         <v>0.3</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="5" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
         <v>54</v>
       </c>
@@ -1371,18 +1608,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="3"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="5" t="s">
         <v>38</v>
       </c>
@@ -1392,136 +1627,236 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="36" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D37" s="6"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="13"/>
       <c r="C38" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="13"/>
       <c r="C39" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="13"/>
       <c r="C40" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="3">
-        <v>0.1</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="13"/>
       <c r="C41" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="3">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="13"/>
       <c r="C42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="13"/>
       <c r="C43" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="13"/>
       <c r="C44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="13"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="13"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="13"/>
+    </row>
+    <row r="49" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="13"/>
+    </row>
+    <row r="51" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="13"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="2:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="13"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="14"/>
+      <c r="C54" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="14"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="14"/>
+      <c r="C56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="14"/>
+      <c r="C57" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="5" t="s">
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="14"/>
+      <c r="C58" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="5" t="s">
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="14"/>
+      <c r="C59" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="5" t="s">
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="2:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="14"/>
+      <c r="C60" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="5" t="s">
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="14"/>
+      <c r="C61" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="14"/>
+      <c r="C62" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="14"/>
+      <c r="C63" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="14"/>
+      <c r="C64" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B37:B46"/>
+  <mergeCells count="7">
+    <mergeCell ref="B53:B64"/>
+    <mergeCell ref="B37:B52"/>
     <mergeCell ref="A2:A36"/>
     <mergeCell ref="A37:A46"/>
     <mergeCell ref="B2:B6"/>
@@ -1569,6 +1904,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1617,16 +1953,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="48.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="72.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,7 +1977,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1652,7 +1988,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
@@ -1664,7 +2000,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
@@ -1676,7 +2012,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="7" t="s">
         <v>50</v>
       </c>
@@ -1688,7 +2024,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="7" t="s">
         <v>64</v>
       </c>
@@ -1700,7 +2036,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="7" t="s">
         <v>63</v>
       </c>
@@ -1712,7 +2048,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="7" t="s">
         <v>71</v>
       </c>
@@ -1722,132 +2058,136 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
+    <row r="10" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="7"/>
+    <row r="11" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="7"/>
+    <row r="12" spans="1:5" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="127.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="D17" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1860,7 +2200,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1891,14 +2231,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
@@ -1913,58 +2253,58 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41234CFA-0FFD-44E3-BEA0-B4E97445A453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57F20E8-65BE-4E8B-BEF0-74549295AEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="program" sheetId="1" r:id="rId1"/>
     <sheet name="every_day" sheetId="3" r:id="rId2"/>
     <sheet name="english" sheetId="2" r:id="rId3"/>
+    <sheet name="schedule" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="195">
   <si>
     <t>时间</t>
   </si>
@@ -123,10 +124,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成核心模块的学习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>js重学（3h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -155,18 +152,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工作内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>今天是11.30才到的，明天争取8点前到图书馆</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>差proxy、reflect对象，那几个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ts（3h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -195,10 +184,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>微前端（2h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mysql入门（5h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -207,18 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nest（5h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vue源码（10h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>react源码（10h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>25-30日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -232,18 +205,6 @@
   </si>
   <si>
     <t>js测试用例编写（2h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>简历调整（1h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试训练（5h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件库原理，如vite、webpack、router（10h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -283,10 +244,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>列举了大纲，编写了demo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>8h</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -305,10 +262,6 @@
   </si>
   <si>
     <t>完成了大纲，差demo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>差tcp、udp的区别</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -342,15 +295,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>uniapp（5h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>23日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解第三方工具，如第三方登录qq、上传qiniu（3h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -494,19 +439,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成了大致的目录，差练习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>大部分概念已捋清楚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>vercel（1h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eslint（1h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -744,11 +681,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>晚上玩手机玩的太晚了，导致手机没电了，
-没闹钟，不能带手机上床，不管任何理由都要6点起床</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>8日-15日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -757,14 +689,739 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>掌握常见用法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>克隆一下分析页面、工作台页面 2h
-表单的3个页面 2h
-学一下react源码 1h
-monRepo 1h</t>
+    <r>
+      <t xml:space="preserve">克隆一下分析页面、工作台页面 4h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网络缓存 2h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坑：
+晚上玩手机玩的太晚了，导致手机没电了，
+没闹钟，不能带手机上床，不管任何理由都要7点起床
+今天要定好明天的计划，才能上床</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机没电了，导致睡到了10点才起床，浪费了3h，睡前手机要保持有30%的电，而且12点自动关机才行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握了常见用法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须每天在群里提问1个问题，给我川哥点压力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>克隆一下分析页面、工作台页面 3h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pro表单的3个页面 2h
+学一下react源码看下怎么学 3h
+monRepo 1h
+适配方案 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">练习一下hook 2h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pro表格的3个页面 2h
+微前端 1h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学习源代码的调试方法：sourcemap、vitest 4h
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16日-22日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六要在群里分享一下读书的心得体会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意力不集中啊，果然还是没控制好自己，运动+饮食来调整自我
+大佬写的案例就是牛逼，通俗易懂，能把复杂的东西一点点给你剥离，简化，
+后面再组合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阅读《vue设计与实现》的2章内容 5h
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如适配、兼容、安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">阅读《vue设计与实现》的1章内容 4h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uni-app 搭建简单项目 3h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读《vuejs设计与实现》（15x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-12:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作，开头10分钟来定一下工作计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:00-7:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身、洗澡、吃饭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-2:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:00-6:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-8:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷牙、锻炼、买早餐、背单词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天下午耽误了太多时间了，睡了2h，下午4点才起来，又懵逼了1h，没控制好节奏，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭、休息，1点睡觉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vitest 1h
+调试 1h
+面试题 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>《vue设计与实现》第5章 2h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午工作内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午工作内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建工具，如vite、webpack、router（1x5h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue源码（2x5h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">es6 regex 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vite 1h
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看了es6的正则，终于把正则系统的学起来了，
+在rollup里面拖了太久了，明天要控制好，要时刻盯着目标来看，
+如果一个任务拖得时间太久了，那就挂起来，马上切入到下一个任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rollup 3h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nodejs 模块系统 1h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学完rollup的基本使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+vite 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monrepo 2h
+pnpm 2h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ts 1h
+uni-app 3h
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：早上是非常重要的时间，早上起不来今天就毁了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-11:00,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中9点开始洗澡，9:30继续，提前10分钟上床</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ts 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>webpack 1h</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>面试题 1h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23日-29日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要不紧急任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>完成了大致的目录，差练习
+todo：</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类型声明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、ts挑战项目</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工程化 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ts 1h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+微前端 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">微前端 2h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>面试 1h
+uni-app 3h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微前端（2x2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解基础概念
+todo：阅读demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天睡觉睡了9点才起床，一定要作息规律，感到郁闷就去运动，不要呆在房间里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法（10x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件封装（2x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react源码（10x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>todo：</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>websocket</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">socket 1.5h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">微前端1h
+面试 1h
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需要入门即可，等工作中碰到再来进阶
+todo：实现uni-app的一个简单商城demo
+haha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干扰信息太多了，导致你关键信息看不到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了解ai辅助功能 1h
+uni-app 2h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成核心模块的学习
+todo：进程process、流stream</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列举了大纲，todo：编写了demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">大文件上传、下载 2h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nodejs 进程、流 1h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniapp（5x2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历调整（2x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试训练（6x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟读阮一峰的es6官网（5x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue源码（10x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：第三方登录、上传qiniu、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解常见功能的实现（1x5h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vercel 0.5h
+第三方登录 1h
+面试 1h
+监控系统 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：集成sentry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：react-router、redux-tool-kit、ahooks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控系统（2x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react生态（5x1h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -844,7 +1501,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,6 +1520,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -878,7 +1541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,6 +1581,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,6 +1591,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1231,21 +1900,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="51.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="40.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -1264,275 +1933,290 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>13</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17"/>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="E7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="3">
         <v>0.5</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>59</v>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="3">
         <v>0.5</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>62</v>
+      <c r="F12" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="3">
         <v>0.6</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="6"/>
+      <c r="F16" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="3">
         <v>0.2</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="F20" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="3">
-        <v>0.2</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="3">
         <v>0.2</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="23" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="10"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="5" t="s">
+    <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="3">
@@ -1540,86 +2224,81 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>95</v>
+        <v>0.4</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="5" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="3">
         <v>0.7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="5" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="3">
         <v>0.7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="3"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="3">
@@ -1627,81 +2306,73 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="3">
         <v>0.5</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="5" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>85</v>
+      <c r="A37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="3"/>
       <c r="F37" s="5" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="6"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D40" s="10"/>
       <c r="F40" s="5" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="3">
@@ -1709,163 +2380,241 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="5" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="13"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="15"/>
+      <c r="C46" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="13"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="13"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
-    </row>
-    <row r="48" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="13"/>
-    </row>
-    <row r="49" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="13"/>
-    </row>
-    <row r="50" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="13"/>
-    </row>
-    <row r="51" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="2:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="13"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="15"/>
+      <c r="C48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="14"/>
+      <c r="C52" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
-        <v>127</v>
-      </c>
+      <c r="E52" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="14"/>
       <c r="C53" s="5" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
-      <c r="C54" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="14"/>
+    </row>
+    <row r="56" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="C56" s="5" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="D56" s="6"/>
-      <c r="E56" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
       <c r="C57" s="5" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
       <c r="C58" s="5" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
       <c r="C59" s="5" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="2:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
       <c r="C60" s="5" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
       <c r="C61" s="5" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
       <c r="C62" s="5" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
       <c r="C63" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="14"/>
+        <v>183</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="5" t="s">
-        <v>102</v>
+        <v>193</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="F64" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="F65" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B53:B64"/>
-    <mergeCell ref="B37:B52"/>
-    <mergeCell ref="A2:A36"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
+  <mergeCells count="10">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B56:B63"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="A6:A36"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B25"/>
     <mergeCell ref="B27:B36"/>
+    <mergeCell ref="B50:B55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="27">
+  <conditionalFormatting sqref="E52:E53 E56:E57 E1:E4 E6:E26 E28:E37 E40:E49 E61:E1048576">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1877,7 +2626,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="28">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0"/>
@@ -1889,7 +2638,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1943,7 +2692,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>E52:E53 E56:E57 E1:E4 E6:E26 E28:E37 E40:E49 E61:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1953,236 +2702,379 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="48.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="72.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="72.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
       <c r="B3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="B5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E7" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
       <c r="B9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>78</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+        <v>85</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="B12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="127.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="127.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="7" t="s">
+    <row r="19" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="7" t="s">
+    <row r="20" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="7" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="7" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="7" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="113.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2200,7 +3092,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2231,14 +3123,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
@@ -2253,58 +3145,67 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="C3" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="C4" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="C5" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2495,4 +3396,94 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D8AD8-AF72-43A0-9470-39F2B77BF850}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.109375" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57F20E8-65BE-4E8B-BEF0-74549295AEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C94E93-D90E-4145-BEEF-BEC792B40569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="196">
   <si>
     <t>时间</t>
   </si>
@@ -443,10 +443,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>vercel（1h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">hook-admin 2h
 </t>
@@ -1422,6 +1418,15 @@
   </si>
   <si>
     <t>react生态（5x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vercel（3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解基本使用
+todo：数据库、serverless</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1581,6 +1586,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1591,9 +1599,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1903,8 +1908,8 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1940,9 +1945,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="1"/>
@@ -1950,11 +1955,11 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>162</v>
+      <c r="B3" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="1"/>
@@ -1962,9 +1967,9 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
@@ -1972,9 +1977,9 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
@@ -1982,10 +1987,10 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1996,12 +2001,12 @@
         <v>0.7</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
@@ -2010,15 +2015,15 @@
         <v>0.7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
@@ -2032,20 +2037,20 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2054,8 +2059,8 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2068,8 +2073,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
@@ -2079,8 +2084,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="5" t="s">
         <v>63</v>
       </c>
@@ -2088,8 +2093,8 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="5" t="s">
         <v>61</v>
       </c>
@@ -2102,8 +2107,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="5" t="s">
         <v>49</v>
       </c>
@@ -2112,12 +2117,12 @@
         <v>0.6</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -2130,8 +2135,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
@@ -2144,16 +2149,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
@@ -2166,16 +2171,16 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
@@ -2185,8 +2190,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
@@ -2202,8 +2207,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="11" t="s">
         <v>32</v>
       </c>
@@ -2213,8 +2218,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
@@ -2224,21 +2229,21 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="5" t="s">
         <v>26</v>
       </c>
@@ -2247,34 +2252,34 @@
         <v>0.4</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="3">
         <v>0.7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="11" t="s">
         <v>44</v>
       </c>
@@ -2287,16 +2292,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="3"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="5" t="s">
         <v>34</v>
       </c>
@@ -2306,8 +2311,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="5" t="s">
         <v>76</v>
       </c>
@@ -2320,46 +2325,46 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="3"/>
       <c r="F37" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="15"/>
     </row>
     <row r="39" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="15"/>
     </row>
     <row r="40" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="5" t="s">
         <v>64</v>
       </c>
@@ -2369,8 +2374,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="5" t="s">
         <v>69</v>
       </c>
@@ -2380,55 +2385,55 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
-        <v>110</v>
+      <c r="B45" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="3">
         <v>0.5</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="3">
@@ -2436,9 +2441,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="15"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="3">
@@ -2447,60 +2452,60 @@
     </row>
     <row r="49" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="3">
         <v>0.1</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="14" t="s">
-        <v>121</v>
+      <c r="B50" s="15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="14"/>
+      <c r="B51" s="15"/>
     </row>
     <row r="52" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="14"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3">
         <v>0.3</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="14"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3">
         <v>0.2</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="14"/>
+      <c r="B54" s="15"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="14"/>
+      <c r="B55" s="15"/>
     </row>
     <row r="56" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="14" t="s">
-        <v>161</v>
+      <c r="B56" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>72</v>
@@ -2509,94 +2514,99 @@
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="14"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D57" s="6"/>
       <c r="F57" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="14"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="14"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="14"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="5" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="D60" s="6"/>
-      <c r="E60" s="1"/>
+      <c r="E60" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="61" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="14"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="3">
         <v>0.2</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="14"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="3">
         <v>0.2</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="14"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="3">
         <v>0.3</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="6"/>
       <c r="F64" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="3:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="6"/>
       <c r="F65" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2613,7 +2623,7 @@
     <mergeCell ref="B50:B55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E52:E53 E56:E57 E1:E4 E6:E26 E28:E37 E40:E49 E61:E1048576">
+  <conditionalFormatting sqref="E52:E53 E56:E57 E1:E4 E6:E26 E28:E37 E40:E49 E60:E1048576">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2692,7 +2702,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E52:E53 E56:E57 E1:E4 E6:E26 E28:E37 E40:E49 E61:E1048576</xm:sqref>
+          <xm:sqref>E52:E53 E56:E57 E1:E4 E6:E26 E28:E37 E40:E49 E60:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2721,17 +2731,17 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2743,7 +2753,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
@@ -2756,7 +2766,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
@@ -2769,7 +2779,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="7" t="s">
         <v>40</v>
       </c>
@@ -2782,7 +2792,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
@@ -2795,7 +2805,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
@@ -2808,7 +2818,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="7" t="s">
         <v>58</v>
       </c>
@@ -2819,33 +2829,33 @@
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -2855,138 +2865,138 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="13" spans="1:6" ht="127.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="7" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="7" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="7" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="7" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2995,10 +3005,10 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="113.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3006,13 +3016,13 @@
         <v>27</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
@@ -3020,10 +3030,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -3031,10 +3041,10 @@
         <v>52</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3042,38 +3052,38 @@
         <v>58</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3123,14 +3133,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
@@ -3145,67 +3155,67 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="C3" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="C4" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="C4" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="C5" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="C5" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3414,69 +3424,69 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C94E93-D90E-4145-BEEF-BEC792B40569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE545686-A279-435E-99A0-1D254E21DF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
     <sheet name="every_day" sheetId="3" r:id="rId2"/>
-    <sheet name="english" sheetId="2" r:id="rId3"/>
-    <sheet name="schedule" sheetId="6" r:id="rId4"/>
+    <sheet name="shortboard" sheetId="6" r:id="rId3"/>
+    <sheet name="english" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="197">
   <si>
     <t>时间</t>
   </si>
@@ -113,10 +113,6 @@
   </si>
   <si>
     <t>node学习（6h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见的设计模式实战（8h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -244,10 +240,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>typeorm（2h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -846,30 +838,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>事项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:00-12:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作，开头10分钟来定一下工作计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6:00-7:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健身、洗澡、吃饭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>语法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -882,27 +850,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12:00-2:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:00-6:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:00-8:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷牙、锻炼、买早餐、背单词</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>今天下午耽误了太多时间了，睡了2h，下午4点才起来，又懵逼了1h，没控制好节奏，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃饭、休息，1点睡觉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1059,22 +1007,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>注意：早上是非常重要的时间，早上起不来今天就毁了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:00-11:00,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其中9点开始洗澡，9:30继续，提前10分钟上床</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -1234,10 +1166,6 @@
   </si>
   <si>
     <t>算法（10x1h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件封装（2x1h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1334,42 +1262,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成核心模块的学习
-todo：进程process、流stream</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列举了大纲，todo：编写了demo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">大文件上传、下载 2h
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nodejs 进程、流 1h</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>uniapp（5x2h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1378,10 +1270,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>面试训练（6x1h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>熟读阮一峰的es6官网（5x1h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1390,22 +1278,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>todo：第三方登录、上传qiniu、</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>了解常见功能的实现（1x5h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vercel 0.5h
-第三方登录 1h
-面试 1h
-监控系统 1h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>todo：集成sentry</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1427,6 +1300,318 @@
   <si>
     <t>了解基本使用
 todo：数据库、serverless</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>了解了自定义一个监控系统需要做哪些工作
+todo：</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集成sentry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、sentry进阶</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天看电影看了太多了，明天要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vercel 2h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+面试 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>监控系统 2h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大文件上传、下载 2h
+node流 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>todo：</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大文件上传、下载、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第三方登录、上传qiniu、</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">第三方登录 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nodejs 进程 2h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式（8x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo:编写demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>webpack 1h
+es6面试 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短板名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑选几个项目来做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试训练（6x2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>完成核心模块的学习
+todo：</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、http、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>node-schedule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、test</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码：vue、react</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目：做的项目类型太少了，基本都是管理系统，
+移动端的也比较缺乏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天刷3道算法题，侧重广度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先快速学一点vue的源码，实操一下
+react的源码就先不要管了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结一些面试技巧和注意事项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法刷题 1h
+uni-app 2h
+移动端开发总结 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">面试 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cron 1h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+算法学习规划 1h</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1546,7 +1731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1599,6 +1784,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1905,11 +2093,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1938,28 +2126,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
       <c r="C2" s="5" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="18">
+        <v>0.1</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="1"/>
@@ -1969,30 +2159,31 @@
     <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="18">
+        <v>0.1</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>13</v>
-      </c>
+    <row r="6" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2001,31 +2192,23 @@
         <v>0.7</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>187</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="3">
@@ -2033,7 +2216,7 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,7 +2237,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -2062,21 +2245,21 @@
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="3">
         <v>0.5</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="3">
@@ -2087,7 +2270,7 @@
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="3"/>
@@ -2096,63 +2279,63 @@
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="3">
         <v>0.4</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="3">
         <v>0.6</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="3">
         <v>0.6</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="3">
         <v>0.4</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -2160,21 +2343,21 @@
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="3">
         <v>0.2</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -2182,7 +2365,7 @@
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="3">
@@ -2193,24 +2376,24 @@
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="3">
         <v>0.2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="3">
@@ -2221,7 +2404,7 @@
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="3">
@@ -2238,42 +2421,42 @@
     <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="3">
         <v>0.4</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="3">
         <v>0.7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" s="6"/>
     </row>
@@ -2281,159 +2464,161 @@
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="3">
         <v>0.7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="5" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="5"/>
+    <row r="36" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="15"/>
     </row>
     <row r="38" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="15"/>
-    </row>
-    <row r="40" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="F39" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="15"/>
       <c r="C40" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="F40" s="5" t="s">
-        <v>79</v>
+      <c r="E40" s="3">
+        <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="15"/>
       <c r="C41" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="15"/>
       <c r="C42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="15"/>
       <c r="C43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="15"/>
+        <v>78</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="C44" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
-        <v>109</v>
-      </c>
+      <c r="E44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="16"/>
       <c r="C45" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16"/>
       <c r="C46" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16"/>
       <c r="C47" s="5" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="3">
@@ -2441,190 +2626,189 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
       <c r="C48" s="5" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="15"/>
+    </row>
+    <row r="51" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="15"/>
+      <c r="C51" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
-    </row>
-    <row r="52" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
       <c r="C52" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
-      <c r="C53" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="3">
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="15"/>
+    </row>
+    <row r="55" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="15"/>
+      <c r="C56" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="3">
         <v>0.2</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-    </row>
-    <row r="56" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
       <c r="C57" s="5" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="F57" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
       <c r="C58" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="15"/>
       <c r="C59" s="5" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="15"/>
       <c r="C60" s="5" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="15"/>
       <c r="C61" s="5" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="3">
         <v>0.2</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="15"/>
       <c r="C62" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F62" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="5" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="15"/>
-      <c r="C63" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="5" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D64" s="6"/>
       <c r="F64" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="F65" s="5" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B56:B63"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="A6:A36"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="A7:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B25"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="B49:B54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E52:E53 E56:E57 E1:E4 E6:E26 E28:E37 E40:E49 E60:E1048576">
-    <cfRule type="dataBar" priority="30">
+  <conditionalFormatting sqref="E51:E52 E8:E26 E1:E6 E28:E36 E39:E48 E59:E1048576 E55:E56">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2636,7 +2820,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0"/>
@@ -2648,7 +2832,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2702,7 +2886,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E52:E53 E56:E57 E1:E4 E6:E26 E28:E37 E40:E49 E60:E1048576</xm:sqref>
+          <xm:sqref>E51:E52 E8:E26 E1:E6 E28:E36 E39:E48 E59:E1048576 E55:E56</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2712,10 +2896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2728,16 +2912,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2755,107 +2939,107 @@
     <row r="3" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -2865,231 +3049,265 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="127.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="14" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="19" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="7" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="9" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="113.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="113.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="D26" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="C28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="E28" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>189</v>
+      <c r="D30" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="A10:A31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3098,11 +3316,89 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D8AD8-AF72-43A0-9470-39F2B77BF850}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.109375" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3157,19 +3453,19 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="C3" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="C4" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="C5" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3406,94 +3702,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D8AD8-AF72-43A0-9470-39F2B77BF850}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="61.109375" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE545686-A279-435E-99A0-1D254E21DF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BFFF73-E3C2-41FE-A2B8-080C4FD11782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -1578,40 +1578,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>算法刷题 1h
+    <r>
+      <t xml:space="preserve">面试 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cron 1h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+算法学习规划 1h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理一下后台系统的常见功能 1h
+算法刷题 1h
 uni-app 2h
 移动端开发总结 1h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">面试 1h
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cron 1h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-算法学习规划 1h</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1774,6 +1775,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1784,9 +1788,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2093,11 +2094,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2138,14 +2139,14 @@
         <v>164</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <v>0.1</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2157,12 +2158,12 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="5" t="s">
         <v>178</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>0.2</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -2171,19 +2172,19 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="5" t="s">
         <v>153</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>0.1</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2197,16 +2198,16 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
@@ -2220,20 +2221,20 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2242,8 +2243,8 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
@@ -2256,8 +2257,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2267,8 +2268,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="5" t="s">
         <v>61</v>
       </c>
@@ -2276,8 +2277,8 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="5" t="s">
         <v>59</v>
       </c>
@@ -2290,8 +2291,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
@@ -2304,8 +2305,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="5" t="s">
         <v>58</v>
       </c>
@@ -2318,8 +2319,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2332,16 +2333,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="5" t="s">
         <v>65</v>
       </c>
@@ -2354,16 +2355,16 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
@@ -2373,8 +2374,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
@@ -2390,8 +2391,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="11" t="s">
         <v>31</v>
       </c>
@@ -2401,8 +2402,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="5" t="s">
         <v>35</v>
       </c>
@@ -2412,21 +2413,21 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="5" t="s">
         <v>25</v>
       </c>
@@ -2439,8 +2440,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="5" t="s">
         <v>90</v>
       </c>
@@ -2453,16 +2454,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="11" t="s">
         <v>43</v>
       </c>
@@ -2475,8 +2476,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="5" t="s">
         <v>33</v>
       </c>
@@ -2486,8 +2487,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="5" t="s">
         <v>74</v>
       </c>
@@ -2500,24 +2501,24 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2530,16 +2531,16 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="16"/>
     </row>
     <row r="39" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="5" t="s">
         <v>62</v>
       </c>
@@ -2549,8 +2550,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="5" t="s">
         <v>67</v>
       </c>
@@ -2560,31 +2561,27 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="6"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2599,14 +2596,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="5" t="s">
         <v>100</v>
       </c>
@@ -2616,7 +2613,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="5" t="s">
         <v>83</v>
       </c>
@@ -2638,15 +2635,15 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15"/>
+      <c r="B50" s="16"/>
     </row>
     <row r="51" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="5" t="s">
         <v>135</v>
       </c>
@@ -2659,7 +2656,7 @@
       </c>
     </row>
     <row r="52" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="5" t="s">
         <v>134</v>
       </c>
@@ -2672,14 +2669,14 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
+      <c r="B53" s="16"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
+      <c r="B54" s="16"/>
     </row>
     <row r="55" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -2692,7 +2689,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="15"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="5" t="s">
         <v>165</v>
       </c>
@@ -2705,7 +2702,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="15"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="5" t="s">
         <v>162</v>
       </c>
@@ -2713,7 +2710,7 @@
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="15"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="5" t="s">
         <v>185</v>
       </c>
@@ -2721,7 +2718,7 @@
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="15"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="5" t="s">
         <v>169</v>
       </c>
@@ -2734,7 +2731,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="15"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="5" t="s">
         <v>163</v>
       </c>
@@ -2746,8 +2743,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="15"/>
+    <row r="61" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="16"/>
       <c r="C61" s="5" t="s">
         <v>149</v>
       </c>
@@ -2760,7 +2757,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="15"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="5" t="s">
         <v>161</v>
       </c>
@@ -2792,6 +2789,12 @@
       <c r="F64" s="5" t="s">
         <v>166</v>
       </c>
+    </row>
+    <row r="65" spans="3:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2807,7 +2810,7 @@
     <mergeCell ref="B49:B54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E51:E52 E8:E26 E1:E6 E28:E36 E39:E48 E59:E1048576 E55:E56">
+  <conditionalFormatting sqref="E51:E52 E8:E26 E1:E6 E28:E36 E39:E42 E44:E48 E59:E1048576 E55:E56">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2886,7 +2889,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E51:E52 E8:E26 E1:E6 E28:E36 E39:E48 E59:E1048576 E55:E56</xm:sqref>
+          <xm:sqref>E51:E52 E8:E26 E1:E6 E28:E36 E39:E42 E44:E48 E59:E1048576 E55:E56</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2898,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2925,7 +2928,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2937,7 +2940,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
@@ -2950,7 +2953,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
@@ -2963,7 +2966,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
@@ -2976,7 +2979,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
         <v>50</v>
       </c>
@@ -2989,7 +2992,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="7" t="s">
         <v>49</v>
       </c>
@@ -3002,7 +3005,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="7" t="s">
         <v>56</v>
       </c>
@@ -3013,7 +3016,7 @@
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
       </c>
@@ -3025,7 +3028,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3039,7 +3042,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -3049,7 +3052,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
         <v>87</v>
       </c>
@@ -3062,7 +3065,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="127.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="7" t="s">
         <v>92</v>
       </c>
@@ -3075,7 +3078,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>94</v>
       </c>
@@ -3088,7 +3091,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="7" t="s">
         <v>97</v>
       </c>
@@ -3101,7 +3104,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="7" t="s">
         <v>101</v>
       </c>
@@ -3114,7 +3117,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="7" t="s">
         <v>103</v>
       </c>
@@ -3125,7 +3128,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
         <v>105</v>
       </c>
@@ -3138,7 +3141,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="7" t="s">
         <v>110</v>
       </c>
@@ -3151,7 +3154,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
         <v>113</v>
       </c>
@@ -3161,7 +3164,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="7" t="s">
         <v>119</v>
       </c>
@@ -3174,7 +3177,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="7" t="s">
         <v>122</v>
       </c>
@@ -3184,7 +3187,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
@@ -3197,7 +3200,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="113.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="7" t="s">
         <v>26</v>
       </c>
@@ -3212,7 +3215,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
@@ -3224,7 +3227,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="7" t="s">
         <v>50</v>
       </c>
@@ -3236,7 +3239,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
@@ -3251,7 +3254,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="7" t="s">
         <v>151</v>
       </c>
@@ -3266,7 +3269,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="7" t="s">
         <v>160</v>
       </c>
@@ -3281,7 +3284,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="7" t="s">
         <v>174</v>
       </c>
@@ -3293,15 +3296,15 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3429,14 +3432,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
@@ -3451,67 +3454,67 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="C3" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="C4" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="C5" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BFFF73-E3C2-41FE-A2B8-080C4FD11782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB44B27-C420-4A37-8BE2-49FE879D353F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <author>zeng hanmu</author>
   </authors>
   <commentList>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{22AA48A3-2436-4ADF-AF7E-CE575BFD59C7}">
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{22AA48A3-2436-4ADF-AF7E-CE575BFD59C7}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="208">
   <si>
     <t>时间</t>
   </si>
@@ -109,10 +109,6 @@
   </si>
   <si>
     <t>18-24日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>node学习（6h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1062,10 +1058,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>重要不紧急任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>完成了大致的目录，差练习
 todo：</t>
@@ -1472,88 +1464,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>完成核心模块的学习
-todo：</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>process</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stream</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、http、</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>node-schedule</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、test</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>源码：vue、react</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目：做的项目类型太少了，基本都是管理系统，
-移动端的也比较缺乏</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1567,10 +1478,6 @@
   <si>
     <t>先快速学一点vue的源码，实操一下
 react的源码就先不要管了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1613,6 +1520,170 @@
 算法刷题 1h
 uni-app 2h
 移动端开发总结 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试技巧、面试题刷的少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础：网络、浏览器、设计模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多刷下面试题，这些记一下即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在poetries刷题（8x2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>node学习（10x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要不紧急</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>todo：</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、http、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>node-schedule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、test</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：基础、进阶、高频、手写、算法、设计模式、原理、面经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目
+做的项目类型太少了，基本都是管理系统，
+移动端的也比较缺乏
+项目难点也没有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷进阶题 2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公软件（word、excel、ppt 3x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：word、excel、ppt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷进阶题 2h
+完成uni-app的demo 3h
+总结项目难点 1h
+算法 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历修正（2x1h)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：技能、项目经验</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1732,7 +1803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1776,6 +1847,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2094,21 +2168,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="54" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -2127,691 +2201,735 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
       <c r="C2" s="5" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="14">
+      <c r="E2" s="3">
         <v>0.1</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>144</v>
-      </c>
+      <c r="B3" s="13"/>
       <c r="C3" s="5" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>198</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>179</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="14">
-        <v>0.1</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>187</v>
-      </c>
+      <c r="E6" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+    <row r="7" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="3">
-        <v>0.2</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>155</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="5" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D19" s="6"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>73</v>
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="3">
-        <v>0.2</v>
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3">
         <v>0.2</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="5" t="s">
+      <c r="F25" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="G26" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="10"/>
       <c r="E29" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="C30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="5"/>
+      <c r="D31"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="5" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="3">
         <v>0.5</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="F38" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="F39" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
-        <v>107</v>
-      </c>
+    </row>
+    <row r="42" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="3">
-        <v>0.5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D44" s="10"/>
       <c r="F44" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
       <c r="B45" s="17"/>
       <c r="C45" s="5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
       <c r="B46" s="17"/>
       <c r="C46" s="5" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="17"/>
+    </row>
+    <row r="47" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="C47" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-    </row>
-    <row r="51" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
+        <v>36</v>
+      </c>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="18"/>
+    </row>
+    <row r="49" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="18"/>
+      <c r="C49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="18"/>
+      <c r="C50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="5" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="3">
         <v>0.3</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
+    </row>
+    <row r="52" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="C52" s="5" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-    </row>
-    <row r="55" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="17"/>
+      <c r="C53" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="17"/>
+    </row>
+    <row r="55" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="17"/>
+    </row>
+    <row r="56" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="17"/>
       <c r="C56" s="5" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="17"/>
+      <c r="C57" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="3">
         <v>0.2</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-      <c r="C57" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-      <c r="C58" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
+      <c r="F57" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="17"/>
+    </row>
+    <row r="60" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="17"/>
       <c r="C60" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="17"/>
+      <c r="C61" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="C61" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="3">
         <v>0.2</v>
       </c>
-      <c r="F61" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
+      <c r="F61" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="17"/>
       <c r="C62" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="17"/>
+      <c r="C63" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="17"/>
+      <c r="C64" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="17"/>
+      <c r="C65" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="3">
+      <c r="D65" s="6"/>
+      <c r="E65" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="3">
         <v>0.3</v>
       </c>
-      <c r="F62" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="3">
+      <c r="F67" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="3">
         <v>0.5</v>
       </c>
-      <c r="F63" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="F64" s="5" t="s">
+      <c r="F68" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="65" spans="3:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="F69" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="A7:A35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B25"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="A10:A38"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B28"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="B52:B57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E51:E52 E8:E26 E1:E6 E28:E36 E39:E42 E44:E48 E59:E1048576 E55:E56">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="E56:E57 E13:E31 E33:E41 E44:E47 E49:E53 E64:E1048576 E60:E61 E1:E9">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2823,7 +2941,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0"/>
@@ -2835,7 +2953,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2889,7 +3007,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E51:E52 E8:E26 E1:E6 E28:E36 E39:E42 E44:E48 E59:E1048576 E55:E56</xm:sqref>
+          <xm:sqref>E56:E57 E13:E31 E33:E41 E44:E47 E49:E53 E64:E1048576 E60:E61 E1:E9</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2899,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2915,20 +3033,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2940,109 +3058,109 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="7" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>21</v>
+      <c r="A10" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -3052,259 +3170,270 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="13" spans="1:6" ht="127.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="7" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="7" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="7" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="7" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="113.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="9" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="D26" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="E27" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="7" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="7" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="C29" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>177</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3322,8 +3451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D8AD8-AF72-43A0-9470-39F2B77BF850}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3334,34 +3463,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -3369,12 +3498,16 @@
         <v>193</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -3432,14 +3565,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
@@ -3454,67 +3587,67 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="C3" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="C4" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="C4" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="C5" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="C5" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="19"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB44B27-C420-4A37-8BE2-49FE879D353F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E371E4-9140-4DCB-B5C4-39771827AA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="206">
   <si>
     <t>时间</t>
   </si>
@@ -1528,14 +1528,6 @@
   </si>
   <si>
     <t>面试技巧、面试题刷的少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础：网络、浏览器、设计模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多刷下面试题，这些记一下即可</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2170,9 +2162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2210,34 +2202,34 @@
     <row r="2" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
       <c r="C2" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3">
         <v>0.1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="3">
         <v>0.1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>162</v>
@@ -2288,26 +2280,26 @@
     <row r="8" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="3">
         <v>0.7</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -3430,10 +3422,10 @@
         <v>192</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3451,8 +3443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D8AD8-AF72-43A0-9470-39F2B77BF850}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3471,7 +3463,7 @@
     </row>
     <row r="2" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>181</v>
@@ -3502,12 +3494,8 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>195</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E371E4-9140-4DCB-B5C4-39771827AA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4DB4D9-56D5-4158-A75F-B4D900B09B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="209">
   <si>
     <t>时间</t>
   </si>
@@ -1676,6 +1676,42 @@
   </si>
   <si>
     <t>todo：技能、项目经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷面试题2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">websocket 2h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学习vue生态vue-router、pinia 2h
+设计模式 1h</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2162,9 +2198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3009,10 +3045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3428,6 +3464,18 @@
         <v>203</v>
       </c>
     </row>
+    <row r="33" spans="2:4" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A9"/>
@@ -3444,7 +3492,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4DB4D9-56D5-4158-A75F-B4D900B09B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2027447D-F1D4-44C4-84FF-A13F42A44194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <author>zeng hanmu</author>
   </authors>
   <commentList>
-    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{22AA48A3-2436-4ADF-AF7E-CE575BFD59C7}">
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{22AA48A3-2436-4ADF-AF7E-CE575BFD59C7}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="214">
   <si>
     <t>时间</t>
   </si>
@@ -1543,104 +1543,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>todo：</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>基础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>process</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stream</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、http、</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>node-schedule</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、test</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>todo：基础、进阶、高频、手写、算法、设计模式、原理、面经</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1711,6 +1613,151 @@
       </rPr>
       <t>学习vue生态vue-router、pinia 2h
 设计模式 1h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架使用、框架生态的了解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找个github项目，看下别人的总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能力（5x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化学习资料 2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>todo：</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、http、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>node-schedule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">、test、
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>console、crypto、buffer</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">学习node buffer、console、crypto 2h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编写搭建一个vue项目模板</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2196,11 +2243,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2238,14 +2285,14 @@
     <row r="2" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
       <c r="C2" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3">
         <v>0.1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -2256,10 +2303,10 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -2323,640 +2370,650 @@
         <v>0.7</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B11" s="17" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="G11" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="5" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="D21" s="6"/>
       <c r="E21" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="3">
         <v>0.6</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="5" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="5" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D24" s="6"/>
+      <c r="E24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="26" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="G26" s="5" t="s">
-        <v>41</v>
+      <c r="E26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="G27" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D28" s="10"/>
       <c r="E28" s="3">
         <v>0.2</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="29" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="10"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
-      <c r="B30" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>34</v>
+      <c r="B30" s="5"/>
+      <c r="C30" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="5"/>
-      <c r="D31"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="5" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="5" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="11" t="s">
-        <v>42</v>
+      <c r="C36" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
-      <c r="C37" s="5" t="s">
-        <v>32</v>
+      <c r="C37" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="5" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="3">
         <v>0.5</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+    <row r="40" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B40" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="5"/>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="17"/>
-      <c r="C41" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="17"/>
     </row>
     <row r="44" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="F44" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="17"/>
       <c r="C45" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D45" s="10"/>
-      <c r="E45" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="17"/>
       <c r="C46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-    </row>
-    <row r="49" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="2:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
-      <c r="C49" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
       <c r="C50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="18"/>
+      <c r="C51" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="17"/>
+    <row r="53" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="C53" s="5" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="17"/>
+      <c r="C54" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="3">
         <v>0.1</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="17"/>
-    </row>
-    <row r="55" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="17"/>
     </row>
     <row r="56" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="17"/>
-      <c r="C56" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="17"/>
       <c r="C57" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="17"/>
+      <c r="C58" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="3">
         <v>0.2</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
+    <row r="59" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="17"/>
-    </row>
-    <row r="60" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="17"/>
-      <c r="C60" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="17"/>
       <c r="C61" s="5" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="D61" s="6"/>
-      <c r="E61" s="3">
-        <v>0.2</v>
-      </c>
+      <c r="E61" s="3"/>
       <c r="F61" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="17"/>
       <c r="C62" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D62" s="6"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="17"/>
       <c r="C63" s="5" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="17"/>
       <c r="C64" s="5" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D64" s="6"/>
-      <c r="E64" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="17"/>
       <c r="C65" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="17"/>
       <c r="C66" s="5" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="3">
         <v>0.2</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="3">
         <v>0.5</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F69" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="5" t="s">
+    <row r="70" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="F69" s="5" t="s">
+      <c r="D70" s="6"/>
+      <c r="F70" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="5" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="6"/>
+      <c r="D71" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="A10:A38"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B28"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="A11:A39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B29"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B53:B58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E56:E57 E13:E31 E33:E41 E44:E47 E49:E53 E64:E1048576 E60:E61 E1:E9">
+  <conditionalFormatting sqref="E57:E58 E14:E32 E34:E42 E45:E48 E50:E54 E65:E1048576 E61:E62 E1:E10">
     <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3035,7 +3092,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E56:E57 E13:E31 E33:E41 E44:E47 E49:E53 E64:E1048576 E60:E61 E1:E9</xm:sqref>
+          <xm:sqref>E57:E58 E14:E32 E34:E42 E45:E48 E50:E54 E65:E1048576 E61:E62 E1:E10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3047,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3458,24 +3515,34 @@
         <v>192</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="34" spans="2:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A9"/>
@@ -3489,10 +3556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D8AD8-AF72-43A0-9470-39F2B77BF850}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3511,39 +3578,43 @@
     </row>
     <row r="2" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -3555,9 +3626,13 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\0front_end_blog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0projects\front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2027447D-F1D4-44C4-84FF-A13F42A44194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32658D07-425B-4596-8A0C-2452EBE94CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="215">
   <si>
     <t>时间</t>
   </si>
@@ -1759,6 +1759,10 @@
       </rPr>
       <t>编写搭建一个vue项目模板</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2246,8 +2250,8 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2993,7 +2997,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="5" t="s">
         <v>77</v>
       </c>
@@ -3102,10 +3106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3541,6 +3545,11 @@
       </c>
       <c r="D34" s="12" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0projects\front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32658D07-425B-4596-8A0C-2452EBE94CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705EA85A-C663-49C5-9D5D-0157D05A28D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="english" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="264">
   <si>
     <t>时间</t>
   </si>
@@ -1254,10 +1255,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>uniapp（5x2h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>简历调整（2x1h）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1271,10 +1268,6 @@
   </si>
   <si>
     <t>了解常见功能的实现（1x5h）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>todo：react-router、redux-tool-kit、ahooks</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1431,10 +1424,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>todo:编写demo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>webpack 1h
 es6面试 1h</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1445,10 +1434,6 @@
   </si>
   <si>
     <t>解决方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑选几个项目来做</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1763,6 +1748,444 @@
   </si>
   <si>
     <t>1日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习uni-app 2h
+编写手写的demo 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天睡晚了，睡到10点，避坑：通过11.30点直接上床,不带手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniapp（5x3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投简历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uni-app商城 3h
+算法 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es 1h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uni-app商城 2x2h
+进阶题-vue、设计模式模块 2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序的入门 3h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序（5x3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1-6日
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：入门、商城项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>axios（2x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小程序的入门 3h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vitest 1h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+axios 1h
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue源码 2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序 2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试 1h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+vue-router 1h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue生态的原理（4x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发烧了，状态好差，原来身体才是你全部拥有的支柱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：vue-router、pinia、axios、vueuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vue的调试 2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vscode vue插件 1h
+github使用 1h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+axios 1h
+简历 1h
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue router原理 1h
+vue源码 2h
+vue3 写法总结 1h
+小程序 2h
+简历 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态组件 2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道为啥，懒了跑不动了，可能是学习方法不对，瞎JB学，乱学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序 2h
+pinia 原理 1h
+webpack原理 1h
+vite原理 1h
+react 面试题 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读啊崔的源码，vue 源码demo 1h
+小程序 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-26日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序（5x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react demo（3x1h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：基础demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序登录、获取用户信息、授权 2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pinia、router面试题 2h
+react面试题 2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：常用命令，场景题目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试得到惨败，多看几个面试的视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整简历 1h
+查看面试视频 2h
+编写react demo 2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react生态（3x2h)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>todo:react-router、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>redux-toolkit</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：封装、源码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>axios二次封装 1h
+事件 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解了事件流模型，事件属性，事件委托，react的合成事件
+完成axios的请求取消、请求重试
+组件封装的原则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+组件设计的一些原则 1h
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>todo：</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>react-router、redux-tool-kit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、ahooks</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">调整简历 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>react router 3h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单渲染 2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">找个有难度的项目做 1h
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo:编写demo，每天2个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对react的练习 1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑选几个项目来做，编写一个vant还有小程序的demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：每天2道算法题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>axios的封装 1h
+权限按钮 1h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+调整简历 1h
+hook写法 1h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>微前端 4h</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1882,7 +2305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1931,6 +2354,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1939,6 +2371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2247,11 +2682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2289,57 +2724,61 @@
     <row r="2" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
       <c r="C2" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3">
         <v>0.1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="3">
         <v>0.15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>196</v>
+      <c r="B4" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="14">
         <v>0.1</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5" t="s">
         <v>151</v>
       </c>
@@ -2347,41 +2786,43 @@
       <c r="E6" s="14">
         <v>0.1</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="14">
         <v>0.2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="3">
         <v>0.7</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
@@ -2391,37 +2832,37 @@
     <row r="10" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
       <c r="G12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2432,30 +2873,30 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
@@ -2468,8 +2909,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
@@ -2479,8 +2920,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="5" t="s">
         <v>60</v>
       </c>
@@ -2488,8 +2929,8 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
@@ -2502,8 +2943,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="5" t="s">
         <v>46</v>
       </c>
@@ -2516,8 +2957,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="5" t="s">
         <v>57</v>
       </c>
@@ -2530,8 +2971,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
@@ -2544,16 +2985,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="5" t="s">
         <v>64</v>
       </c>
@@ -2566,8 +3007,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="5" t="s">
         <v>54</v>
       </c>
@@ -2577,8 +3018,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="5" t="s">
         <v>35</v>
       </c>
@@ -2588,8 +3029,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="5" t="s">
         <v>29</v>
       </c>
@@ -2602,7 +3043,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="5"/>
       <c r="C30" s="11" t="s">
         <v>30</v>
@@ -2611,10 +3052,13 @@
       <c r="E30" s="3">
         <v>0.5</v>
       </c>
+      <c r="F30" s="5" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2622,23 +3066,26 @@
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="5"/>
       <c r="D32"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
     </row>
     <row r="34" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="5" t="s">
         <v>24</v>
       </c>
@@ -2651,8 +3098,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="5" t="s">
         <v>89</v>
       </c>
@@ -2665,16 +3112,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="11" t="s">
         <v>42</v>
       </c>
@@ -2687,8 +3134,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="5" t="s">
         <v>32</v>
       </c>
@@ -2698,8 +3145,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="5" t="s">
         <v>73</v>
       </c>
@@ -2712,10 +3159,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2724,14 +3171,14 @@
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="5" t="s">
         <v>83</v>
       </c>
@@ -2742,16 +3189,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="20"/>
     </row>
     <row r="44" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="20"/>
     </row>
     <row r="45" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="5" t="s">
         <v>61</v>
       </c>
@@ -2761,8 +3208,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="5" t="s">
         <v>66</v>
       </c>
@@ -2772,15 +3219,15 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -2789,10 +3236,10 @@
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="2:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="18"/>
+      <c r="B49" s="21"/>
     </row>
     <row r="50" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="5" t="s">
         <v>85</v>
       </c>
@@ -2805,7 +3252,7 @@
       </c>
     </row>
     <row r="51" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="5" t="s">
         <v>90</v>
       </c>
@@ -2821,7 +3268,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -2833,7 +3280,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="17"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="5" t="s">
         <v>125</v>
       </c>
@@ -2846,13 +3293,13 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="17"/>
+      <c r="B55" s="20"/>
     </row>
     <row r="56" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="17"/>
+      <c r="B56" s="20"/>
     </row>
     <row r="57" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="17"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="5" t="s">
         <v>134</v>
       </c>
@@ -2865,7 +3312,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="17"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="5" t="s">
         <v>133</v>
       </c>
@@ -2878,71 +3325,71 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="20" t="s">
         <v>142</v>
       </c>
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="17"/>
+      <c r="B60" s="20"/>
     </row>
     <row r="61" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="17"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="3"/>
       <c r="F61" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="17"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="3">
         <v>0.2</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="17"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="17"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="17"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="3">
         <v>0.6</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="17"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="3">
@@ -2964,9 +3411,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="5" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="3">
@@ -2976,44 +3423,171 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="22" t="s">
+        <v>219</v>
+      </c>
       <c r="C69" s="5" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="D69" s="6"/>
-      <c r="E69" s="3">
+      <c r="E69" s="3"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="22"/>
+      <c r="C70" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="3">
         <v>0.5</v>
       </c>
-      <c r="F69" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="22"/>
+      <c r="C71" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="6"/>
+      <c r="E71" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="22"/>
+      <c r="C72" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="22"/>
+      <c r="C73" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="22"/>
+      <c r="C74" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="F74" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="22"/>
+      <c r="C75" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="22"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="22"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="22"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="22"/>
+    </row>
+    <row r="80" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="21"/>
+      <c r="C81" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="2:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="21"/>
+      <c r="C82" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="21"/>
+      <c r="C83" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="21"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="21"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="21"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="21"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="21"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="21"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="21"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="21"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="21"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B40:B47"/>
+  <mergeCells count="12">
+    <mergeCell ref="B80:B93"/>
     <mergeCell ref="A11:A39"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B29"/>
     <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B69:B79"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B40:B47"/>
     <mergeCell ref="B53:B58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3106,10 +3680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3135,7 +3709,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -3147,7 +3721,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
@@ -3160,7 +3734,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
@@ -3173,7 +3747,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
@@ -3186,7 +3760,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7" t="s">
         <v>49</v>
       </c>
@@ -3199,7 +3773,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="7" t="s">
         <v>48</v>
       </c>
@@ -3212,7 +3786,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="7" t="s">
         <v>55</v>
       </c>
@@ -3223,7 +3797,7 @@
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="7" t="s">
         <v>75</v>
       </c>
@@ -3235,7 +3809,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3249,7 +3823,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -3259,7 +3833,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="7" t="s">
         <v>86</v>
       </c>
@@ -3272,7 +3846,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="127.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="7" t="s">
         <v>91</v>
       </c>
@@ -3285,7 +3859,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="7" t="s">
         <v>93</v>
       </c>
@@ -3298,7 +3872,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="7" t="s">
         <v>96</v>
       </c>
@@ -3311,7 +3885,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="7" t="s">
         <v>100</v>
       </c>
@@ -3324,7 +3898,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="7" t="s">
         <v>102</v>
       </c>
@@ -3335,7 +3909,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="7" t="s">
         <v>104</v>
       </c>
@@ -3348,7 +3922,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
         <v>109</v>
       </c>
@@ -3361,7 +3935,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="7" t="s">
         <v>112</v>
       </c>
@@ -3371,7 +3945,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="7" t="s">
         <v>118</v>
       </c>
@@ -3384,7 +3958,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="7" t="s">
         <v>121</v>
       </c>
@@ -3394,7 +3968,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
@@ -3407,7 +3981,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="113.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
@@ -3422,7 +3996,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="7" t="s">
         <v>38</v>
       </c>
@@ -3434,7 +4008,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
@@ -3446,7 +4020,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="7" t="s">
         <v>55</v>
       </c>
@@ -3461,7 +4035,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="7" t="s">
         <v>149</v>
       </c>
@@ -3476,80 +4050,247 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="9" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="C31" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="C33" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>214</v>
+      <c r="E35" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="E42" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="5" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +4309,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3579,50 +4320,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="7" t="s">
         <v>189</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3685,14 +4426,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
@@ -3707,67 +4448,67 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="23"/>
       <c r="C3" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="23"/>
       <c r="C4" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="C5" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="23"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="23"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0projects\front_end_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705EA85A-C663-49C5-9D5D-0157D05A28D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBF9601-02B5-4E2C-9D5F-C26C87C40209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="7500" windowHeight="6000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="english" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="271">
   <si>
     <t>时间</t>
   </si>
@@ -2186,6 +2185,57 @@
       </rPr>
       <t>微前端 4h</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现表单设计器功能（4x3h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-10日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速过一遍源码（3x2h）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo：实现响应式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>简历调整 1h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现响应式 2h</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2363,13 +2413,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2682,11 +2732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2750,7 +2800,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>192</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2766,7 +2816,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="5" t="s">
         <v>152</v>
       </c>
@@ -2778,7 +2828,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
         <v>151</v>
       </c>
@@ -2792,7 +2842,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="5" t="s">
         <v>174</v>
       </c>
@@ -2842,27 +2892,27 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="G12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
     </row>
     <row r="14" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2873,30 +2923,30 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
@@ -2909,8 +2959,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
@@ -2920,8 +2970,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="5" t="s">
         <v>60</v>
       </c>
@@ -2929,8 +2979,8 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
@@ -2943,8 +2993,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="5" t="s">
         <v>46</v>
       </c>
@@ -2957,8 +3007,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="5" t="s">
         <v>57</v>
       </c>
@@ -2971,8 +3021,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
@@ -2985,16 +3035,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="5" t="s">
         <v>64</v>
       </c>
@@ -3007,8 +3057,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="5" t="s">
         <v>54</v>
       </c>
@@ -3018,8 +3068,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="5" t="s">
         <v>35</v>
       </c>
@@ -3029,8 +3079,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="5" t="s">
         <v>29</v>
       </c>
@@ -3043,7 +3093,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="5"/>
       <c r="C30" s="11" t="s">
         <v>30</v>
@@ -3057,8 +3107,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -3073,19 +3123,19 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="5"/>
       <c r="D32"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
     </row>
     <row r="34" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="5" t="s">
         <v>24</v>
       </c>
@@ -3098,8 +3148,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="5" t="s">
         <v>89</v>
       </c>
@@ -3112,16 +3162,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="11" t="s">
         <v>42</v>
       </c>
@@ -3134,8 +3184,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="5" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3195,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="5" t="s">
         <v>73</v>
       </c>
@@ -3159,10 +3209,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -3171,14 +3221,14 @@
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="5" t="s">
         <v>83</v>
       </c>
@@ -3189,16 +3239,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="19"/>
     </row>
     <row r="44" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="19"/>
     </row>
     <row r="45" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="5" t="s">
         <v>61</v>
       </c>
@@ -3208,8 +3258,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="5" t="s">
         <v>66</v>
       </c>
@@ -3219,15 +3269,15 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="19" t="s">
         <v>106</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -3236,10 +3286,10 @@
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="2:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="21"/>
+      <c r="B49" s="20"/>
     </row>
     <row r="50" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="21"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="5" t="s">
         <v>85</v>
       </c>
@@ -3252,7 +3302,7 @@
       </c>
     </row>
     <row r="51" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="21"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="5" t="s">
         <v>90</v>
       </c>
@@ -3268,7 +3318,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="19" t="s">
         <v>117</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -3280,7 +3330,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="20"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="5" t="s">
         <v>125</v>
       </c>
@@ -3293,13 +3343,13 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="20"/>
+      <c r="B55" s="19"/>
     </row>
     <row r="56" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="20"/>
+      <c r="B56" s="19"/>
     </row>
     <row r="57" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="20"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="5" t="s">
         <v>134</v>
       </c>
@@ -3312,7 +3362,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="20"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="5" t="s">
         <v>133</v>
       </c>
@@ -3325,16 +3375,16 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="19" t="s">
         <v>142</v>
       </c>
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="20"/>
+      <c r="B60" s="19"/>
     </row>
     <row r="61" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="20"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="5" t="s">
         <v>69</v>
       </c>
@@ -3345,7 +3395,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="20"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="5" t="s">
         <v>162</v>
       </c>
@@ -3358,7 +3408,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="20"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="5" t="s">
         <v>159</v>
       </c>
@@ -3366,7 +3416,7 @@
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="20"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="5" t="s">
         <v>179</v>
       </c>
@@ -3374,7 +3424,7 @@
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="20"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="5" t="s">
         <v>165</v>
       </c>
@@ -3387,7 +3437,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="20"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="5" t="s">
         <v>160</v>
       </c>
@@ -3512,7 +3562,7 @@
       <c r="B79" s="22"/>
     </row>
     <row r="80" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="19" t="s">
         <v>239</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -3520,15 +3570,15 @@
       </c>
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="21"/>
+    <row r="81" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="20"/>
       <c r="C81" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="2:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="21"/>
+    <row r="82" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="20"/>
       <c r="C82" s="5" t="s">
         <v>249</v>
       </c>
@@ -3538,57 +3588,119 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="21"/>
+    <row r="83" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="20"/>
       <c r="C83" s="5" t="s">
         <v>147</v>
       </c>
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="21"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="21"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="21"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="21"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="21"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="21"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="21"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="21"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="21"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="21"/>
+    <row r="84" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="20"/>
+      <c r="C84" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="20"/>
+    </row>
+    <row r="87" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="F87" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="20"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="20"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="20"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="20"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="20"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="20"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="20"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="20"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B80:B93"/>
+  <mergeCells count="14">
+    <mergeCell ref="B87:B96"/>
+    <mergeCell ref="A87:A106"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B80:B85"/>
     <mergeCell ref="A11:A39"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B29"/>
     <mergeCell ref="B31:B39"/>
     <mergeCell ref="B69:B79"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="B53:B58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E57:E58 E14:E32 E34:E42 E45:E48 E50:E54 E65:E1048576 E61:E62 E1:E10">
@@ -3680,10 +3792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3709,7 +3821,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -3721,7 +3833,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
@@ -3734,7 +3846,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
@@ -3747,7 +3859,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
@@ -3760,7 +3872,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="7" t="s">
         <v>49</v>
       </c>
@@ -3773,7 +3885,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="7" t="s">
         <v>48</v>
       </c>
@@ -3786,7 +3898,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
         <v>55</v>
       </c>
@@ -3797,7 +3909,7 @@
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="7" t="s">
         <v>75</v>
       </c>
@@ -3809,7 +3921,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3823,7 +3935,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -3833,7 +3945,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="7" t="s">
         <v>86</v>
       </c>
@@ -3846,7 +3958,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="127.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="7" t="s">
         <v>91</v>
       </c>
@@ -3859,7 +3971,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="7" t="s">
         <v>93</v>
       </c>
@@ -3872,7 +3984,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="7" t="s">
         <v>96</v>
       </c>
@@ -3885,7 +3997,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="7" t="s">
         <v>100</v>
       </c>
@@ -3898,7 +4010,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="7" t="s">
         <v>102</v>
       </c>
@@ -3909,7 +4021,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
         <v>104</v>
       </c>
@@ -3922,7 +4034,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="7" t="s">
         <v>109</v>
       </c>
@@ -3935,7 +4047,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
         <v>112</v>
       </c>
@@ -3945,7 +4057,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="7" t="s">
         <v>118</v>
       </c>
@@ -3958,7 +4070,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>121</v>
       </c>
@@ -3968,7 +4080,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
@@ -3981,7 +4093,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="113.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
@@ -3996,7 +4108,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="7" t="s">
         <v>38</v>
       </c>
@@ -4008,7 +4120,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
@@ -4020,7 +4132,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="7" t="s">
         <v>55</v>
       </c>
@@ -4035,7 +4147,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="7" t="s">
         <v>149</v>
       </c>
@@ -4050,7 +4162,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="7" t="s">
         <v>158</v>
       </c>
@@ -4065,7 +4177,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="7" t="s">
         <v>170</v>
       </c>
@@ -4077,7 +4189,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="7" t="s">
         <v>178</v>
       </c>
@@ -4291,6 +4403,23 @@
     <row r="51" spans="2:4" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="5" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="2:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4426,11 +4555,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
